--- a/docs/sets_intersections.xlsx
+++ b/docs/sets_intersections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Desktop/wikipedia_cultural_diversity_observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB0BE27-181F-5E47-9C7F-E8B6A591E766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C71817F-FB63-6140-BFCB-3151951D8D81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25360" windowHeight="15540" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
+    <workbookView xWindow="-56860" yWindow="-3100" windowWidth="28660" windowHeight="20200" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
   </bookViews>
   <sheets>
     <sheet name="intersections" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="128">
   <si>
     <t>ccc</t>
   </si>
@@ -201,9 +201,6 @@
     <t>last month</t>
   </si>
   <si>
-    <t>no_language_ccc</t>
-  </si>
-  <si>
     <t>ccc_vital_articles_lists</t>
   </si>
   <si>
@@ -333,24 +330,12 @@
     <t>how well this language edition covers this list of ccc vital articles in all languages?</t>
   </si>
   <si>
-    <t>what is the extent of language 1 all ccc vital articles lists pageviews in language 2 all pageviews?</t>
-  </si>
-  <si>
-    <t>what is the extent of language 2 all ccc vital articles lists pageviews in language 2 all pageviews?</t>
-  </si>
-  <si>
     <t>what is the extent of all languages ccc vital articles pageviews in language wp all pageviews?</t>
   </si>
   <si>
     <t>what is the extent of ccc pageviews in the language all pageviews?</t>
   </si>
   <si>
-    <t>what is the extent of language 2 ccc pageviews in the language 1 all pageviews?</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
@@ -399,16 +384,31 @@
     <t>main set</t>
   </si>
   <si>
-    <t>set_1</t>
-  </si>
-  <si>
-    <t>set_1_descriptor</t>
-  </si>
-  <si>
-    <t>set_2</t>
-  </si>
-  <si>
-    <t>set_2_descriptor</t>
+    <t>set1descriptor</t>
+  </si>
+  <si>
+    <t>set1</t>
+  </si>
+  <si>
+    <t>set2</t>
+  </si>
+  <si>
+    <t>set2descriptor</t>
+  </si>
+  <si>
+    <t>not_own_ccc</t>
+  </si>
+  <si>
+    <t>what is the extent of a language all ccc vital articles lists pageviews in ccc pageviews?</t>
+  </si>
+  <si>
+    <t>what is the extent of a language all ccc vital articles lists pageviews in all articles pageviews?</t>
+  </si>
+  <si>
+    <t>what is the extent of language 2 ccc pageviews in the language all pageviews?</t>
+  </si>
+  <si>
+    <t>what is the extent of language 2 all ccc vital articles lists pageviews in the language all pageviews?</t>
   </si>
 </sst>
 </file>
@@ -439,18 +439,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -582,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -601,11 +595,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426F6B2-14A9-484B-8624-F4CD6D7B5D64}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,28 +926,28 @@
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="79.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="92.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>108</v>
+        <v>122</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>8</v>
@@ -976,8 +969,8 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>109</v>
+      <c r="F2" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>28</v>
@@ -997,13 +990,13 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>109</v>
+        <v>83</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1020,13 +1013,13 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1045,8 +1038,8 @@
       <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>109</v>
+      <c r="F5" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -1066,10 +1059,10 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>109</v>
+        <v>123</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
@@ -1091,8 +1084,8 @@
       <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>109</v>
+      <c r="F7" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1114,8 +1107,8 @@
       <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>109</v>
+      <c r="F8" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1135,13 +1128,13 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1149,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1157,8 +1150,8 @@
       <c r="E10" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>109</v>
+      <c r="F10" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>44</v>
@@ -1180,8 +1173,8 @@
       <c r="E11" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>109</v>
+      <c r="F11" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
@@ -1203,8 +1196,8 @@
       <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>109</v>
+      <c r="F12" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -1224,13 +1217,13 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1247,13 +1240,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1270,13 +1263,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1293,13 +1286,13 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1318,8 +1311,8 @@
       <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>109</v>
+      <c r="F17" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
@@ -1341,8 +1334,8 @@
       <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>109</v>
+      <c r="F18" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>18</v>
@@ -1364,8 +1357,8 @@
       <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>109</v>
+      <c r="F19" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>19</v>
@@ -1387,8 +1380,8 @@
       <c r="E20" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>109</v>
+      <c r="F20" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>20</v>
@@ -1410,8 +1403,8 @@
       <c r="E21" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>109</v>
+      <c r="F21" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>21</v>
@@ -1433,8 +1426,8 @@
       <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>109</v>
+      <c r="F22" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>22</v>
@@ -1453,8 +1446,8 @@
       <c r="E23" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>109</v>
+      <c r="F23" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>24</v>
@@ -1473,8 +1466,8 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>109</v>
+      <c r="F24" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>23</v>
@@ -1496,8 +1489,8 @@
       <c r="E25" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>109</v>
+      <c r="F25" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>27</v>
@@ -1511,7 +1504,7 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>15</v>
@@ -1519,14 +1512,14 @@
       <c r="E26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>109</v>
+      <c r="F26" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1537,7 +1530,7 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>15</v>
@@ -1545,11 +1538,11 @@
       <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>109</v>
+      <c r="F27" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H27" s="10"/>
     </row>
@@ -1558,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>15</v>
@@ -1569,14 +1562,14 @@
       <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>109</v>
+      <c r="F28" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1584,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>15</v>
@@ -1595,11 +1588,11 @@
       <c r="E29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>109</v>
+      <c r="F29" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H29" s="10"/>
     </row>
@@ -1608,22 +1601,22 @@
         <v>0</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>109</v>
+      <c r="F30" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1634,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1663,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>109</v>
+        <v>60</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1677,19 +1670,19 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>109</v>
+      <c r="F33" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1697,22 +1690,22 @@
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>109</v>
+      <c r="F34" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1720,22 +1713,22 @@
         <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>109</v>
+      <c r="F35" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1743,22 +1736,22 @@
         <v>29</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>109</v>
+        <v>83</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1766,22 +1759,22 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>109</v>
+        <v>83</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1789,22 +1782,22 @@
         <v>29</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>109</v>
+        <v>83</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1823,8 +1816,8 @@
       <c r="E39" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>109</v>
+      <c r="F39" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>32</v>
@@ -1847,8 +1840,8 @@
       <c r="E40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>109</v>
+      <c r="F40" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>34</v>
@@ -1871,8 +1864,8 @@
       <c r="E41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="21" t="s">
-        <v>109</v>
+      <c r="F41" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>33</v>
@@ -1884,7 +1877,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -1895,8 +1888,8 @@
       <c r="E42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>109</v>
+      <c r="F42" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>41</v>
@@ -1908,7 +1901,7 @@
         <v>29</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
@@ -1919,8 +1912,8 @@
       <c r="E43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="21" t="s">
-        <v>109</v>
+      <c r="F43" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>42</v>
@@ -1932,7 +1925,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
@@ -1943,8 +1936,8 @@
       <c r="E44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>109</v>
+      <c r="F44" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>43</v>
@@ -1967,8 +1960,8 @@
       <c r="E45" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>109</v>
+      <c r="F45" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>35</v>
@@ -1990,8 +1983,8 @@
       <c r="E46" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>109</v>
+      <c r="F46" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>36</v>
@@ -2013,8 +2006,8 @@
       <c r="E47" t="s">
         <v>0</v>
       </c>
-      <c r="F47" s="21" t="s">
-        <v>109</v>
+      <c r="F47" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>37</v>
@@ -2036,8 +2029,8 @@
       <c r="E48" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>109</v>
+      <c r="F48" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>38</v>
@@ -2059,8 +2052,8 @@
       <c r="E49" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="21" t="s">
-        <v>109</v>
+      <c r="F49" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>39</v>
@@ -2082,8 +2075,8 @@
       <c r="E50" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>109</v>
+      <c r="F50" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>40</v>
@@ -2103,13 +2096,13 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2117,20 +2110,20 @@
         <v>45</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>109</v>
+      <c r="F52" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2138,7 +2131,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>45</v>
@@ -2149,8 +2142,8 @@
       <c r="E53" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F53" s="21" t="s">
-        <v>109</v>
+      <c r="F53" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>51</v>
@@ -2161,7 +2154,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>45</v>
@@ -2172,8 +2165,8 @@
       <c r="E54" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="21" t="s">
-        <v>109</v>
+      <c r="F54" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>53</v>
@@ -2184,7 +2177,7 @@
         <v>45</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>45</v>
@@ -2195,8 +2188,8 @@
       <c r="E55" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F55" s="21" t="s">
-        <v>109</v>
+      <c r="F55" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>52</v>
@@ -2207,7 +2200,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>45</v>
@@ -2218,8 +2211,8 @@
       <c r="E56" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="21" t="s">
-        <v>109</v>
+      <c r="F56" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>46</v>
@@ -2236,13 +2229,13 @@
         <v>6</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="21" t="s">
-        <v>109</v>
+      <c r="F57" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>50</v>
@@ -2264,11 +2257,11 @@
       <c r="E58" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F58" s="21" t="s">
-        <v>109</v>
+      <c r="F58" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2287,11 +2280,11 @@
       <c r="E59" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F59" s="21" t="s">
-        <v>109</v>
+      <c r="F59" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2310,11 +2303,11 @@
       <c r="E60" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="21" t="s">
-        <v>109</v>
+      <c r="F60" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2333,8 +2326,8 @@
       <c r="E61" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="21" t="s">
-        <v>109</v>
+      <c r="F61" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>54</v>
@@ -2356,8 +2349,8 @@
       <c r="E62" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F62" s="21" t="s">
-        <v>109</v>
+      <c r="F62" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>55</v>
@@ -2379,8 +2372,8 @@
       <c r="E63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="21" t="s">
-        <v>109</v>
+      <c r="F63" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>56</v>
@@ -2400,13 +2393,13 @@
         <v>7</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2423,13 +2416,13 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>65</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>109</v>
+        <v>64</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2440,7 +2433,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>7</v>
@@ -2448,11 +2441,11 @@
       <c r="E66" t="s">
         <v>0</v>
       </c>
-      <c r="F66" s="21" t="s">
-        <v>109</v>
+      <c r="F66" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2469,13 +2462,13 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>109</v>
+        <v>64</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2486,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>7</v>
@@ -2494,11 +2487,11 @@
       <c r="E68" t="s">
         <v>1</v>
       </c>
-      <c r="F68" s="21" t="s">
-        <v>109</v>
+      <c r="F68" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2515,13 +2508,13 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>65</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>109</v>
+        <v>64</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2532,7 +2525,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>7</v>
@@ -2540,11 +2533,11 @@
       <c r="E70" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="21" t="s">
-        <v>109</v>
+      <c r="F70" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2555,19 +2548,19 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>109</v>
+        <v>64</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2578,19 +2571,19 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>109</v>
+        <v>123</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2601,7 +2594,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -2609,11 +2602,11 @@
       <c r="E73" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="21" t="s">
-        <v>109</v>
+      <c r="F73" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2624,7 +2617,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>7</v>
@@ -2632,11 +2625,11 @@
       <c r="E74" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="21" t="s">
-        <v>109</v>
+      <c r="F74" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2647,7 +2640,7 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>7</v>
@@ -2655,11 +2648,11 @@
       <c r="E75" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="21" t="s">
-        <v>109</v>
+      <c r="F75" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2670,7 +2663,7 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>7</v>
@@ -2678,11 +2671,11 @@
       <c r="E76" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="21" t="s">
-        <v>109</v>
+      <c r="F76" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2693,19 +2686,19 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E77" t="s">
         <v>45</v>
       </c>
-      <c r="F77" s="21" t="s">
-        <v>109</v>
+      <c r="F77" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2716,7 +2709,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -2724,11 +2717,11 @@
       <c r="E78" t="s">
         <v>47</v>
       </c>
-      <c r="F78" s="21" t="s">
-        <v>109</v>
+      <c r="F78" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2739,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -2747,11 +2740,11 @@
       <c r="E79" t="s">
         <v>48</v>
       </c>
-      <c r="F79" s="21" t="s">
-        <v>109</v>
+      <c r="F79" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2762,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -2770,11 +2763,11 @@
       <c r="E80" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="21" t="s">
-        <v>109</v>
+      <c r="F80" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2785,19 +2778,19 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E81" t="s">
-        <v>64</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>109</v>
+        <v>63</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -2808,154 +2801,168 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D82" t="s">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>109</v>
+        <v>60</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>16</v>
+        <v>99</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F83" s="22" t="s">
-        <v>100</v>
+      <c r="F83" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>107</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H83" s="21"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>107</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>107</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="10" t="s">
+      <c r="E87" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E86" t="s">
-        <v>61</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" t="s">
-        <v>61</v>
-      </c>
-      <c r="F87" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H87" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="E88" t="s">
+        <v>60</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/sets_intersections.xlsx
+++ b/docs/sets_intersections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Desktop/cultural diversity observatory/GitHub/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC30D270-9415-CB45-9082-76177D5641A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6422E7-F7DD-AD48-806D-99DB67F5DDF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38300" yWindow="-9760" windowWidth="35340" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="15540" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
   </bookViews>
   <sheets>
     <sheet name="intersections" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="166">
   <si>
     <t>ccc</t>
   </si>
@@ -486,10 +486,43 @@
     <t>A: accumulated monthly, B: last accumulated, C: monthly, D: last month.</t>
   </si>
   <si>
-    <t>month_articles</t>
-  </si>
-  <si>
     <t>different db</t>
+  </si>
+  <si>
+    <t>what is the extent of geolocated articles in this country in last month created geolocated articles?</t>
+  </si>
+  <si>
+    <t>what is the extent of geolocated articles in this subregion in last month created geolocated articles?</t>
+  </si>
+  <si>
+    <t>what is the extent of geolocated articles in this region (continent) in last month created geolocated articles?</t>
+  </si>
+  <si>
+    <t>top10pageviews</t>
+  </si>
+  <si>
+    <t>gender_name</t>
+  </si>
+  <si>
+    <t>how many articles of this type are among the most seen (10)?</t>
+  </si>
+  <si>
+    <t>top100pageviews</t>
+  </si>
+  <si>
+    <t>top500pageviews</t>
+  </si>
+  <si>
+    <t>top1000pageviews</t>
+  </si>
+  <si>
+    <t>how many articles of this type are among the most seen (1000)?</t>
+  </si>
+  <si>
+    <t>how many articles of this type are among the most seen (500)?</t>
+  </si>
+  <si>
+    <t>how many articles of this type are among the most seen (100)?</t>
   </si>
 </sst>
 </file>
@@ -674,10 +707,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:J94" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:J94" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
-  <sortState ref="A3:J94">
-    <sortCondition ref="A2:A94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:J109" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:J109" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
+  <sortState ref="A3:J109">
+    <sortCondition ref="A2:A109"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{A6E15DC7-B722-374E-B3D6-3AA0ED59483E}" name="function"/>
@@ -992,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426F6B2-14A9-484B-8624-F4CD6D7B5D64}">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="E51" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1036,7 @@
     <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
@@ -1546,9 +1579,6 @@
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
@@ -2347,7 +2377,7 @@
         <v>7</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>7</v>
@@ -2362,7 +2392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -2376,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>7</v>
@@ -2391,7 +2421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>140</v>
       </c>
@@ -2405,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>7</v>
@@ -2420,7 +2450,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>140</v>
       </c>
@@ -2434,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>7</v>
@@ -2449,7 +2479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>140</v>
       </c>
@@ -2463,7 +2493,7 @@
         <v>7</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>14</v>
@@ -2478,7 +2508,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>140</v>
       </c>
@@ -2492,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>7</v>
@@ -2507,7 +2537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>140</v>
       </c>
@@ -2521,7 +2551,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>7</v>
@@ -2536,7 +2566,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>140</v>
       </c>
@@ -2550,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>7</v>
@@ -2565,7 +2595,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>140</v>
       </c>
@@ -2579,7 +2609,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>72</v>
@@ -2594,7 +2624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>140</v>
       </c>
@@ -2608,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>3</v>
@@ -2623,7 +2653,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>140</v>
       </c>
@@ -2637,7 +2667,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>5</v>
@@ -2652,7 +2682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>140</v>
       </c>
@@ -2666,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>4</v>
@@ -2681,7 +2711,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>140</v>
       </c>
@@ -2695,22 +2725,22 @@
         <v>7</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I60" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I60" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>140</v>
       </c>
@@ -2724,584 +2754,585 @@
         <v>7</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I61" s="7" t="s">
+      <c r="H64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I64" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J65" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J66" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J67" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>34</v>
+        <v>134</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>35</v>
+      <c r="G69" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>36</v>
+        <v>134</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>37</v>
+        <v>134</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>38</v>
+      <c r="G72" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>39</v>
+        <v>134</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>77</v>
+      <c r="G75" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>76</v>
+        <v>134</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>30</v>
+      <c r="C77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>69</v>
+        <v>0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>7</v>
@@ -3310,82 +3341,81 @@
         <v>6</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>29</v>
+        <v>83</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J82" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>30</v>
+      <c r="D83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J83" s="3"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>129</v>
@@ -3394,28 +3424,27 @@
         <v>28</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>28</v>
+      <c r="G84" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J84" s="2"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>129</v>
@@ -3424,28 +3453,27 @@
         <v>28</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>29</v>
+      <c r="G85" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J85" s="2"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>129</v>
@@ -3454,266 +3482,703 @@
         <v>28</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>30</v>
+      <c r="G86" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J86" s="2"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>56</v>
+        <v>129</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>82</v>
+      <c r="I91" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J92" s="2"/>
+      <c r="I92" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="93" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="B106" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F109" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I94" s="1" t="s">
+      <c r="G109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J94" s="2"/>
-    </row>
-    <row r="95" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/sets_intersections.xlsx
+++ b/docs/sets_intersections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6422E7-F7DD-AD48-806D-99DB67F5DDF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9D8104-039F-3844-86AB-D8C8826D600A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="15540" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
+    <workbookView xWindow="22120" yWindow="7740" windowWidth="37100" windowHeight="21120" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
   </bookViews>
   <sheets>
     <sheet name="intersections" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="164">
   <si>
     <t>ccc</t>
   </si>
@@ -273,9 +273,6 @@
     <t>what is the extent of articles in this language edition without a qitem in wikidata?</t>
   </si>
   <si>
-    <t>* not in intersections</t>
-  </si>
-  <si>
     <t>pageviews</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
   </si>
   <si>
     <t>generate_langs_ccc_intersections</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>generate_ccc_ccc_intersections</t>
@@ -590,11 +584,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -707,12 +700,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:J109" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:J109" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
-  <sortState ref="A3:J109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I109" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:I109" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
+  <sortState ref="A3:I109">
     <sortCondition ref="A2:A109"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A6E15DC7-B722-374E-B3D6-3AA0ED59483E}" name="function"/>
     <tableColumn id="2" xr3:uid="{A168ABB2-CE3B-8A46-86F9-0AE5B7443802}" name="running"/>
     <tableColumn id="3" xr3:uid="{CD40B044-4AF6-A74D-9860-DB9CF592FD82}" name="main set" dataDxfId="6"/>
@@ -722,7 +715,6 @@
     <tableColumn id="7" xr3:uid="{37D1F588-D40B-9341-84ED-2EEA6844E025}" name="set2descriptor" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{E5809F85-8DA4-1645-A149-281B329985E0}" name="content" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{26FB4224-179F-E246-BFC6-CF4FD55CEF22}" name="question" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{C364DE6C-74BD-7448-99A2-55E99F51A6DF}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1025,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426F6B2-14A9-484B-8624-F4CD6D7B5D64}">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E51" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,52 +1034,48 @@
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="92.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1105,18 +1093,18 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -1131,18 +1119,18 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>147</v>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1160,18 +1148,18 @@
         <v>69</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>147</v>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -1186,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>147</v>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -1215,21 +1203,21 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>147</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -1244,21 +1232,21 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1276,18 +1264,18 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -1305,18 +1293,18 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -1334,18 +1322,18 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -1360,21 +1348,21 @@
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -1392,18 +1380,18 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>136</v>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -1421,18 +1409,18 @@
         <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>44</v>
@@ -1447,18 +1435,18 @@
         <v>44</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
@@ -1476,18 +1464,18 @@
         <v>69</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
@@ -1505,18 +1493,18 @@
         <v>69</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -1534,18 +1522,18 @@
         <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
@@ -1563,18 +1551,18 @@
         <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>44</v>
@@ -1589,7 +1577,7 @@
         <v>46</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>50</v>
@@ -1597,10 +1585,10 @@
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>44</v>
@@ -1618,7 +1606,7 @@
         <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>52</v>
@@ -1626,10 +1614,10 @@
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -1647,7 +1635,7 @@
         <v>48</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>51</v>
@@ -1655,10 +1643,10 @@
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>44</v>
@@ -1676,7 +1664,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>45</v>
@@ -1684,16 +1672,16 @@
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
@@ -1705,24 +1693,24 @@
         <v>46</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>44</v>
@@ -1734,24 +1722,24 @@
         <v>47</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>44</v>
@@ -1763,18 +1751,18 @@
         <v>48</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>44</v>
@@ -1792,7 +1780,7 @@
         <v>44</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>49</v>
@@ -1800,10 +1788,10 @@
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -1821,18 +1809,18 @@
         <v>46</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>44</v>
@@ -1840,7 +1828,7 @@
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1850,18 +1838,18 @@
         <v>47</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>44</v>
@@ -1869,7 +1857,7 @@
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1879,18 +1867,18 @@
         <v>48</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>44</v>
@@ -1908,7 +1896,7 @@
         <v>44</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>53</v>
@@ -1916,10 +1904,10 @@
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>44</v>
@@ -1933,11 +1921,11 @@
       <c r="F32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>54</v>
@@ -1945,10 +1933,10 @@
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>44</v>
@@ -1962,11 +1950,11 @@
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>55</v>
@@ -1974,42 +1962,42 @@
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -2018,44 +2006,44 @@
         <v>6</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -2073,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>16</v>
@@ -2081,10 +2069,10 @@
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -2102,7 +2090,7 @@
         <v>6</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -2110,10 +2098,10 @@
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -2131,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>18</v>
@@ -2139,10 +2127,10 @@
     </row>
     <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -2160,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>19</v>
@@ -2168,10 +2156,10 @@
     </row>
     <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -2189,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>20</v>
@@ -2197,10 +2185,10 @@
     </row>
     <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -2218,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>21</v>
@@ -2226,10 +2214,10 @@
     </row>
     <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -2244,7 +2232,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>23</v>
@@ -2252,10 +2240,10 @@
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -2270,7 +2258,7 @@
         <v>25</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>22</v>
@@ -2278,12 +2266,12 @@
     </row>
     <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2299,20 +2287,20 @@
         <v>6</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -2328,7 +2316,7 @@
         <v>69</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>71</v>
@@ -2336,12 +2324,12 @@
     </row>
     <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2357,7 +2345,7 @@
         <v>80</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>81</v>
@@ -2365,974 +2353,970 @@
     </row>
     <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I49" s="5" t="s">
+      <c r="H49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I50" s="5" t="s">
+      <c r="H50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I51" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" s="10" t="s">
+      <c r="G52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I53" s="5" t="s">
+      <c r="H53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I54" s="5" t="s">
+      <c r="H54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I55" s="7" t="s">
+      <c r="H55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I56" s="5" t="s">
+      <c r="G56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I57" s="5" t="s">
+      <c r="H57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H58" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I58" s="5" t="s">
+      <c r="H58" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I59" s="7" t="s">
+      <c r="H59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>154</v>
+      <c r="H60" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>155</v>
+      <c r="H61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H62" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>156</v>
+      <c r="H62" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G63" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>123</v>
+      <c r="H63" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I64" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I78" s="1" t="s">
+    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>7</v>
@@ -3347,22 +3331,21 @@
         <v>0</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>7</v>
@@ -3374,22 +3357,21 @@
         <v>14</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>28</v>
@@ -3407,18 +3389,18 @@
         <v>0</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>28</v>
@@ -3436,18 +3418,18 @@
         <v>0</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>28</v>
@@ -3465,18 +3447,18 @@
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>28</v>
@@ -3494,18 +3476,18 @@
         <v>28</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>28</v>
@@ -3523,18 +3505,18 @@
         <v>29</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>28</v>
@@ -3552,18 +3534,18 @@
         <v>30</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>28</v>
@@ -3578,21 +3560,21 @@
         <v>7</v>
       </c>
       <c r="G89" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>28</v>
@@ -3607,76 +3589,76 @@
         <v>28</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I91" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I92" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>28</v>
@@ -3694,18 +3676,18 @@
         <v>69</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>28</v>
@@ -3723,18 +3705,18 @@
         <v>69</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>28</v>
@@ -3752,18 +3734,18 @@
         <v>69</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>28</v>
@@ -3781,79 +3763,76 @@
         <v>28</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G97" s="4" t="s">
+      <c r="D97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G98" s="4" t="s">
+      <c r="D98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>28</v>
@@ -3867,23 +3846,22 @@
       <c r="F99" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J99" s="2"/>
-    </row>
-    <row r="100" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>28</v>
@@ -3897,23 +3875,22 @@
       <c r="F100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J100" s="2"/>
-    </row>
-    <row r="101" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>28</v>
@@ -3927,29 +3904,28 @@
       <c r="F101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="G101" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J101" s="2"/>
-    </row>
-    <row r="102" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>56</v>
@@ -3961,18 +3937,18 @@
         <v>6</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>0</v>
@@ -3984,82 +3960,82 @@
         <v>6</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I103" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I104" s="1" t="s">
+    <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>0</v>
@@ -4070,28 +4046,25 @@
       <c r="E106" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G106" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>0</v>
@@ -4100,85 +4073,80 @@
         <v>15</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F107" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G107" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J107" s="2"/>
-    </row>
-    <row r="108" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J109" s="2"/>
-    </row>
-    <row r="110" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/sets_intersections.xlsx
+++ b/docs/sets_intersections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9D8104-039F-3844-86AB-D8C8826D600A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F222D75-8557-9544-BF56-1E96CD0DB62C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22120" yWindow="7740" windowWidth="37100" windowHeight="21120" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
   </bookViews>
   <sheets>
     <sheet name="intersections" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="184">
   <si>
     <t>ccc</t>
   </si>
@@ -198,9 +198,6 @@
     <t>list_name</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>what is the extent of ccc articles in last month created articles?</t>
   </si>
   <si>
@@ -517,6 +514,69 @@
   </si>
   <si>
     <t>how many articles of this type are among the most seen (100)?</t>
+  </si>
+  <si>
+    <t>what is the extent of not own articles in last month created articles?</t>
+  </si>
+  <si>
+    <t>all_top_ccc_articles</t>
+  </si>
+  <si>
+    <t>top_ccc_articles_lists</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>generate_ccc_diversity_topics_intersections</t>
+  </si>
+  <si>
+    <t>folk</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>monuments and buildings</t>
+  </si>
+  <si>
+    <t>music creations and organizations</t>
+  </si>
+  <si>
+    <t>sports and teams</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>paintings</t>
+  </si>
+  <si>
+    <t>glam</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>clothing and fashion</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>what is the extent of this topic in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of this topic in this language edition ccc?</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -584,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -595,6 +655,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,10 +761,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I109" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:I109" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
-  <sortState ref="A3:I109">
-    <sortCondition ref="A2:A109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I134" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:I134" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
+  <sortState ref="A3:I134">
+    <sortCondition ref="A2:A134"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A6E15DC7-B722-374E-B3D6-3AA0ED59483E}" name="function"/>
@@ -1017,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426F6B2-14A9-484B-8624-F4CD6D7B5D64}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,33 +1099,33 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>8</v>
@@ -1072,10 +1133,10 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1093,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
@@ -1101,16 +1162,16 @@
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -1119,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>43</v>
@@ -1127,10 +1188,10 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1145,21 +1206,21 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -1174,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -1203,21 +1264,21 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -1232,21 +1293,21 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1264,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>9</v>
@@ -1272,10 +1333,10 @@
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -1293,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -1301,10 +1362,10 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -1322,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -1330,10 +1391,10 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -1348,21 +1409,21 @@
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -1380,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
@@ -1388,10 +1449,10 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -1409,1601 +1470,1604 @@
         <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>142</v>
+      <c r="A15" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>166</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>142</v>
+      <c r="A16" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>166</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>146</v>
+        <v>84</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>142</v>
+      <c r="A17" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>69</v>
+        <v>166</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>147</v>
+        <v>84</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>142</v>
+      <c r="A18" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>166</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>148</v>
+        <v>84</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>142</v>
+      <c r="A19" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>69</v>
+        <v>166</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>149</v>
+        <v>84</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>142</v>
+      <c r="A20" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>142</v>
+      <c r="A21" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>142</v>
+      <c r="A22" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>142</v>
+      <c r="A23" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>142</v>
+      <c r="A24" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>142</v>
+      <c r="A25" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>142</v>
+      <c r="A26" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>142</v>
+      <c r="A27" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>44</v>
+        <v>166</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>142</v>
+      <c r="A28" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>46</v>
+        <v>166</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>142</v>
+      <c r="A29" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>47</v>
+        <v>166</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>142</v>
+      <c r="A30" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>48</v>
+        <v>166</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>142</v>
+      <c r="A31" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>142</v>
+      <c r="A32" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>142</v>
+      <c r="A33" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>136</v>
+      <c r="A34" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>136</v>
+      <c r="A35" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>136</v>
+      <c r="A36" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>107</v>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>6</v>
+        <v>127</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>6</v>
+        <v>131</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>6</v>
+        <v>131</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>58</v>
+      <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>59</v>
+      <c r="C49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>60</v>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>59</v>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>61</v>
+      <c r="C52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>62</v>
+        <v>127</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>63</v>
+        <v>127</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>64</v>
+        <v>127</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>65</v>
+        <v>127</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>66</v>
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>67</v>
+        <v>127</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>68</v>
+        <v>127</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>152</v>
+        <v>127</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>153</v>
+        <v>127</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>154</v>
+        <v>127</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>157</v>
+        <v>127</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>157</v>
+        <v>127</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>157</v>
+        <v>127</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>163</v>
+        <v>127</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>163</v>
+        <v>127</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>7</v>
@@ -3012,946 +3076,949 @@
         <v>0</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>163</v>
+        <v>84</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>162</v>
+        <v>84</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>162</v>
+        <v>84</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>161</v>
+        <v>84</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>156</v>
+        <v>7</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>161</v>
+        <v>84</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>0</v>
+      <c r="G76" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>161</v>
+        <v>84</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>83</v>
+        <v>132</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>34</v>
+        <v>132</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>35</v>
+        <v>132</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>36</v>
+        <v>132</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>37</v>
+        <v>132</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>38</v>
+        <v>132</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>39</v>
+      <c r="G88" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>87</v>
+        <v>132</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>77</v>
+        <v>132</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>76</v>
+      <c r="G91" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>75</v>
+        <v>132</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>74</v>
+        <v>132</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>79</v>
+      <c r="G94" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>78</v>
+        <v>132</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>31</v>
+      <c r="C96" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>33</v>
+      <c r="G97" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>32</v>
+      <c r="C98" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>28</v>
+      <c r="G99" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H102" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>7</v>
@@ -3960,193 +4027,906 @@
         <v>6</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="G131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/sets_intersections.xlsx
+++ b/docs/sets_intersections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F222D75-8557-9544-BF56-1E96CD0DB62C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8074A9A1-88A2-944C-9E7C-705C9A2EABA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
+    <workbookView xWindow="2100" yWindow="460" windowWidth="27120" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
   </bookViews>
   <sheets>
     <sheet name="intersections" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="189">
   <si>
     <t>ccc</t>
   </si>
@@ -360,9 +360,6 @@
     <t>what is the extent of this region (continent) geolocated items in all geolocated articles in all languages?</t>
   </si>
   <si>
-    <t>top_articles_lists</t>
-  </si>
-  <si>
     <t>all_top_articles</t>
   </si>
   <si>
@@ -577,6 +574,24 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>what is the extent of articles during the last month?</t>
+  </si>
+  <si>
+    <t>A,B</t>
+  </si>
+  <si>
+    <t>sexual_orientation</t>
+  </si>
+  <si>
+    <t>race_and_ethnia</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -761,10 +776,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I134" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:I134" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
-  <sortState ref="A3:I134">
-    <sortCondition ref="A2:A134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I145" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:I145" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
+  <sortState ref="A3:I145">
+    <sortCondition ref="A2:A145"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A6E15DC7-B722-374E-B3D6-3AA0ED59483E}" name="function"/>
@@ -1078,17 +1093,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426F6B2-14A9-484B-8624-F4CD6D7B5D64}">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
@@ -1099,15 +1114,15 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>95</v>
@@ -1133,10 +1148,10 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1162,10 +1177,10 @@
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -1188,10 +1203,10 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1217,10 +1232,10 @@
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -1246,10 +1261,10 @@
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -1275,10 +1290,10 @@
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -1304,10 +1319,10 @@
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1333,10 +1348,10 @@
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -1362,10 +1377,10 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -1391,10 +1406,10 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -1420,10 +1435,10 @@
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -1449,10 +1464,10 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -1478,39 +1493,39 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="H15" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -1522,24 +1537,24 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -1551,24 +1566,24 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -1580,24 +1595,24 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -1609,24 +1624,24 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -1638,24 +1653,24 @@
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -1667,24 +1682,24 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -1696,24 +1711,24 @@
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -1725,24 +1740,24 @@
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -1754,24 +1769,24 @@
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -1783,53 +1798,53 @@
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="H26" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -1841,24 +1856,24 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -1870,24 +1885,24 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -1899,24 +1914,24 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -1928,24 +1943,24 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -1957,24 +1972,24 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -1986,24 +2001,24 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -2015,24 +2030,24 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -2044,24 +2059,24 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -2073,24 +2088,24 @@
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2102,24 +2117,24 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -2142,10 +2157,10 @@
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>44</v>
@@ -2163,15 +2178,15 @@
         <v>84</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>44</v>
@@ -2192,15 +2207,15 @@
         <v>84</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>44</v>
@@ -2221,15 +2236,15 @@
         <v>84</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>44</v>
@@ -2250,15 +2265,15 @@
         <v>84</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>44</v>
@@ -2284,10 +2299,10 @@
     </row>
     <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>44</v>
@@ -2313,10 +2328,10 @@
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>44</v>
@@ -2342,10 +2357,10 @@
     </row>
     <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>44</v>
@@ -2371,10 +2386,10 @@
     </row>
     <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>44</v>
@@ -2400,10 +2415,10 @@
     </row>
     <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>44</v>
@@ -2429,10 +2444,10 @@
     </row>
     <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>44</v>
@@ -2458,10 +2473,10 @@
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>44</v>
@@ -2485,305 +2500,308 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="1" t="s">
+    <row r="50" spans="1:9" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="H50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="1" t="s">
+    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="H51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="1" t="s">
+    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="E52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="H52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="1" t="s">
+    <row r="53" spans="1:9" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>53</v>
+      <c r="H53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H54" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H55" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>102</v>
+        <v>44</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>6</v>
@@ -2792,157 +2810,157 @@
         <v>84</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>1</v>
+      <c r="D61" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -2951,30 +2969,30 @@
         <v>15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>6</v>
+        <v>126</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>15</v>
@@ -2986,169 +3004,166 @@
         <v>14</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I67" s="8" t="s">
-        <v>27</v>
+      <c r="I67" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>6</v>
+        <v>126</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>6</v>
+        <v>126</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>57</v>
+        <v>126</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="B72" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>59</v>
+        <v>126</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>7</v>
@@ -3160,24 +3175,24 @@
         <v>7</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I73" s="6" t="s">
-        <v>163</v>
+      <c r="I73" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>7</v>
@@ -3186,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>0</v>
@@ -3194,19 +3209,19 @@
       <c r="H74" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>60</v>
+      <c r="I74" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>7</v>
@@ -3217,25 +3232,25 @@
       <c r="F75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>29</v>
+      <c r="G75" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>7</v>
@@ -3246,25 +3261,25 @@
       <c r="F76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>30</v>
+      <c r="G76" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>7</v>
@@ -3275,25 +3290,25 @@
       <c r="F77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>28</v>
+      <c r="G77" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>7</v>
@@ -3302,27 +3317,27 @@
         <v>6</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>64</v>
+      <c r="I78" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>7</v>
@@ -3331,27 +3346,27 @@
         <v>6</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>7</v>
@@ -3360,27 +3375,27 @@
         <v>6</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>7</v>
@@ -3389,114 +3404,114 @@
         <v>6</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="H82" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>153</v>
+      <c r="I84" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>7</v>
@@ -3505,271 +3520,271 @@
         <v>6</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I86" s="6" t="s">
-        <v>122</v>
+      <c r="I86" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I87" s="6" t="s">
-        <v>156</v>
+      <c r="I87" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G91" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I91" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>84</v>
@@ -3780,25 +3795,25 @@
     </row>
     <row r="95" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>84</v>
@@ -3809,54 +3824,54 @@
     </row>
     <row r="96" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>84</v>
@@ -3867,25 +3882,25 @@
     </row>
     <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>84</v>
@@ -3896,126 +3911,126 @@
     </row>
     <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>82</v>
+        <v>131</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>81</v>
@@ -4027,7 +4042,7 @@
         <v>6</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>0</v>
@@ -4036,238 +4051,238 @@
         <v>81</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="D104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>6</v>
+      <c r="D105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="I105" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="106" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>182</v>
+      <c r="D106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="I106" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="107" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>183</v>
+      <c r="D107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I107" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>28</v>
@@ -4276,27 +4291,27 @@
         <v>7</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>28</v>
@@ -4305,27 +4320,27 @@
         <v>7</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>28</v>
@@ -4334,19 +4349,19 @@
         <v>7</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4354,25 +4369,28 @@
         <v>139</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4380,28 +4398,28 @@
         <v>139</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C116" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G116" s="3" t="s">
+      <c r="D116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>75</v>
+      <c r="I116" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4409,28 +4427,28 @@
         <v>139</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C117" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G117" s="3" t="s">
+      <c r="D117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I117" s="3" t="s">
-        <v>74</v>
+      <c r="I117" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4438,36 +4456,36 @@
         <v>139</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>28</v>
@@ -4475,144 +4493,141 @@
       <c r="D119" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F119" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C120" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="E120" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>68</v>
+      <c r="G120" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>77</v>
+      <c r="I120" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>6</v>
+      <c r="D121" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>28</v>
+      <c r="G121" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>31</v>
+      <c r="I121" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="D122" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>29</v>
+      <c r="E122" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="D123" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>30</v>
+      <c r="E123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>28</v>
@@ -4620,313 +4635,469 @@
       <c r="D124" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>28</v>
+      <c r="E124" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>6</v>
+      <c r="G125" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G126" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>6</v>
+        <v>130</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G131" s="10"/>
+      <c r="I131" s="10"/>
+    </row>
+    <row r="132" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G132" s="10"/>
+      <c r="I132" s="10"/>
+    </row>
+    <row r="133" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G133" s="10"/>
+      <c r="I133" s="10"/>
+    </row>
+    <row r="134" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G134" s="10"/>
+      <c r="I134" s="10"/>
+    </row>
+    <row r="135" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G135" s="10"/>
+      <c r="I135" s="10"/>
+    </row>
+    <row r="136" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G136" s="10"/>
+      <c r="I136" s="10"/>
+    </row>
+    <row r="137" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G137" s="10"/>
+      <c r="I137" s="10"/>
+    </row>
+    <row r="138" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" s="1" t="s">
+      <c r="B142" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G131" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I131" s="1" t="s">
+      <c r="G142" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I143" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="1" t="s">
+    <row r="144" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G132" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I133" s="1" t="s">
+      <c r="G145" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I145" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/sets_intersections.xlsx
+++ b/docs/sets_intersections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8074A9A1-88A2-944C-9E7C-705C9A2EABA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA9E4C-378C-A24B-9371-4CE37504232C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="460" windowWidth="27120" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
+    <workbookView xWindow="-30560" yWindow="-5140" windowWidth="28960" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
   </bookViews>
   <sheets>
     <sheet name="intersections" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="191">
   <si>
     <t>ccc</t>
   </si>
@@ -592,6 +592,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>list_origin</t>
+  </si>
+  <si>
+    <t>generate_top_diversity_articles_lists_intersections (top_diversity_selection.py)</t>
   </si>
 </sst>
 </file>
@@ -776,10 +782,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I145" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:I145" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
-  <sortState ref="A3:I145">
-    <sortCondition ref="A2:A145"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I151" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:I151" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
+  <sortState ref="A3:I151">
+    <sortCondition ref="A2:A151"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A6E15DC7-B722-374E-B3D6-3AA0ED59483E}" name="function"/>
@@ -1093,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426F6B2-14A9-484B-8624-F4CD6D7B5D64}">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4983,121 +4989,295 @@
     </row>
     <row r="142" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C142" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>94</v>
+        <v>126</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="H144" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="C148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E150" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F151" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G145" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I145" s="1" t="s">
+      <c r="G151" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I151" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/sets_intersections.xlsx
+++ b/docs/sets_intersections.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA9E4C-378C-A24B-9371-4CE37504232C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08162445-1477-EB48-B978-14CFFC0E715E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30560" yWindow="-5140" windowWidth="28960" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
+    <workbookView xWindow="-31780" yWindow="-5140" windowWidth="35080" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
   </bookViews>
   <sheets>
     <sheet name="intersections" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="240">
   <si>
     <t>ccc</t>
   </si>
@@ -585,19 +586,166 @@
     <t>sexual_orientation</t>
   </si>
   <si>
-    <t>race_and_ethnia</t>
-  </si>
-  <si>
-    <t>religion</t>
+    <t>list_origin</t>
+  </si>
+  <si>
+    <t>generate_top_diversity_articles_lists_intersections (top_diversity_selection.py)</t>
+  </si>
+  <si>
+    <t>edited_last_month</t>
+  </si>
+  <si>
+    <t>what is the extent of articles in this language edition that were edited last month?</t>
+  </si>
+  <si>
+    <t>wikidata_articles_qitems</t>
+  </si>
+  <si>
+    <t>sexual orientation</t>
+  </si>
+  <si>
+    <t>what is the extent of people with a sexual orientation cue in wikidata?</t>
+  </si>
+  <si>
+    <t>what is the extent of people from each sexual orientation in wikidata?</t>
+  </si>
+  <si>
+    <t>what is the extent of people from each sexual orientation in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of people with a sexual orientation cue in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of people from each sexual orientation in CCC?</t>
+  </si>
+  <si>
+    <t>sexual_orientation_name</t>
+  </si>
+  <si>
+    <t>religious_group</t>
+  </si>
+  <si>
+    <t>religious_group_name</t>
+  </si>
+  <si>
+    <t>religious group</t>
+  </si>
+  <si>
+    <t>generate_religious_groups_interesections</t>
+  </si>
+  <si>
+    <t>what is the extent of people with a religious group cue in wikidata?</t>
+  </si>
+  <si>
+    <t>what is the extent of people from each religious group in wikidata?</t>
+  </si>
+  <si>
+    <t>what is the extent of people with a religious group cue in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of people from each religious group in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of people from each religious group in CCC?</t>
+  </si>
+  <si>
+    <t>ethnic_group</t>
+  </si>
+  <si>
+    <t>ethnic_group_name</t>
+  </si>
+  <si>
+    <t>ethnic group</t>
+  </si>
+  <si>
+    <t>what is the extent of people with a ethnic group cue in wikidata?</t>
+  </si>
+  <si>
+    <t>what is the extent of people from each ethnic group in wikidata?</t>
+  </si>
+  <si>
+    <t>what is the extent of people from each ethnic group in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of people from each ethnic group in CCC?</t>
+  </si>
+  <si>
+    <t>how well this language edition covers articles about this sexual orientation?</t>
+  </si>
+  <si>
+    <t>how well this language edition covers articles about this religious group?</t>
+  </si>
+  <si>
+    <t>how well this language edition covers articles about this ethnic group?</t>
+  </si>
+  <si>
+    <t>what is the extent of this ethnic group articles in last month created articles?</t>
+  </si>
+  <si>
+    <t>what is the extent of this religious group articles in last month created articles?</t>
+  </si>
+  <si>
+    <t>what is the extent of this sexual orientation group articles in last month created articles?</t>
+  </si>
+  <si>
+    <t>generate_sexual_orientation_intersections</t>
+  </si>
+  <si>
+    <t>what is the extent of people who has an affiliation to a religious group in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of people who has a sexual orientation in this language edition?</t>
+  </si>
+  <si>
+    <t>generate_ethnic_groups_intersections</t>
+  </si>
+  <si>
+    <t>what is the extent of people from each ethnic group in Wikipedia people?</t>
+  </si>
+  <si>
+    <t>what is the extent of people from each ethnic group in a Wikipedia language edition?</t>
+  </si>
+  <si>
+    <t>generate_time_intersections</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>list_origin</t>
-  </si>
-  <si>
-    <t>generate_top_diversity_articles_lists_intersections (top_diversity_selection.py)</t>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>what is the extent of items with a time-related property in wikidata?</t>
+  </si>
+  <si>
+    <t>what is the extent of people alive?</t>
+  </si>
+  <si>
+    <t>what is the extent of people with a start time?</t>
+  </si>
+  <si>
+    <t>what is the extent of people articles alive in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of people articles with start time in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of geolocated articles with start time in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of articles with start time or end time in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of male articles with start time in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of female articles with start time in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of CCC articles with start or end time in this language edition?</t>
   </si>
 </sst>
 </file>
@@ -628,7 +776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +787,36 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -665,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -677,6 +855,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,10 +970,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I151" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:I151" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
-  <sortState ref="A3:I151">
-    <sortCondition ref="A2:A151"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I179" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:I179" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
+  <sortState ref="A3:I179">
+    <sortCondition ref="A2:A179"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A6E15DC7-B722-374E-B3D6-3AA0ED59483E}" name="function"/>
@@ -1099,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426F6B2-14A9-484B-8624-F4CD6D7B5D64}">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1110,10 +1298,10 @@
     <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="92.6640625" style="1" customWidth="1"/>
   </cols>
@@ -3161,33 +3349,33 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>183</v>
+        <v>126</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3210,13 +3398,13 @@
         <v>7</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3239,13 +3427,13 @@
         <v>7</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3268,13 +3456,13 @@
         <v>7</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3297,13 +3485,13 @@
         <v>7</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I77" s="6" t="s">
-        <v>162</v>
+      <c r="I77" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3323,16 +3511,16 @@
         <v>6</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I78" s="9" t="s">
-        <v>60</v>
+      <c r="I78" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3352,16 +3540,16 @@
         <v>6</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>61</v>
+      <c r="I79" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3384,13 +3572,13 @@
         <v>7</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3413,13 +3601,13 @@
         <v>7</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I81" s="6" t="s">
-        <v>63</v>
+      <c r="I81" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3439,16 +3627,16 @@
         <v>6</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>64</v>
+      <c r="I82" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3468,16 +3656,16 @@
         <v>6</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3497,16 +3685,16 @@
         <v>6</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3526,16 +3714,16 @@
         <v>6</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I85" s="6" t="s">
-        <v>67</v>
+      <c r="I85" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3552,19 +3740,19 @@
         <v>7</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I86" s="4" t="s">
-        <v>150</v>
+      <c r="I86" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3584,16 +3772,16 @@
         <v>44</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3613,16 +3801,16 @@
         <v>44</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>152</v>
+      <c r="I88" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3639,19 +3827,19 @@
         <v>7</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3671,16 +3859,16 @@
         <v>6</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3697,19 +3885,19 @@
         <v>7</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3729,10 +3917,10 @@
         <v>153</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>84</v>
@@ -3758,10 +3946,10 @@
         <v>153</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>84</v>
@@ -3784,19 +3972,19 @@
         <v>7</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3816,10 +4004,10 @@
         <v>156</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>84</v>
@@ -3845,10 +4033,10 @@
         <v>156</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>84</v>
@@ -3871,19 +4059,19 @@
         <v>7</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3903,10 +4091,10 @@
         <v>157</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>84</v>
@@ -3932,10 +4120,10 @@
         <v>157</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>84</v>
@@ -3958,19 +4146,19 @@
         <v>7</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3990,10 +4178,10 @@
         <v>158</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>84</v>
@@ -4019,10 +4207,10 @@
         <v>158</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>84</v>
@@ -4033,118 +4221,118 @@
     </row>
     <row r="103" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>82</v>
+        <v>131</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>137</v>
+      <c r="A104" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>137</v>
+      <c r="A105" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>137</v>
+      <c r="A106" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4164,7 +4352,7 @@
         <v>6</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>0</v>
@@ -4173,7 +4361,7 @@
         <v>81</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4186,14 +4374,14 @@
       <c r="C108" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="D108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>111</v>
@@ -4202,7 +4390,7 @@
         <v>81</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4215,20 +4403,23 @@
       <c r="C109" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>6</v>
+      <c r="D109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4241,20 +4432,23 @@
       <c r="C110" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>181</v>
+      <c r="D110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4267,139 +4461,133 @@
       <c r="C111" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>182</v>
+      <c r="D111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I111" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>139</v>
       </c>
@@ -4413,19 +4601,19 @@
         <v>7</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4442,19 +4630,19 @@
         <v>7</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4471,24 +4659,24 @@
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>126</v>
@@ -4497,82 +4685,85 @@
         <v>28</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="D120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I120" s="3" t="s">
-        <v>75</v>
+      <c r="I120" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G121" s="3" t="s">
+      <c r="D121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I121" s="3" t="s">
-        <v>74</v>
+      <c r="I121" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>126</v>
@@ -4581,22 +4772,22 @@
         <v>28</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4612,20 +4803,17 @@
       <c r="D123" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F123" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4635,26 +4823,26 @@
       <c r="B124" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="E124" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>68</v>
+      <c r="G124" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>77</v>
+      <c r="I124" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4662,28 +4850,28 @@
         <v>138</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>6</v>
+      <c r="D125" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>28</v>
+      <c r="G125" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>31</v>
+      <c r="I125" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4691,28 +4879,28 @@
         <v>138</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" s="3" t="s">
+      <c r="D126" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>29</v>
+      <c r="E126" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4720,28 +4908,28 @@
         <v>138</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" s="3" t="s">
+      <c r="D127" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>30</v>
+      <c r="E127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4757,20 +4945,20 @@
       <c r="D128" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>28</v>
+      <c r="E128" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4778,28 +4966,28 @@
         <v>138</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>6</v>
+      <c r="G129" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4807,477 +4995,1450 @@
         <v>138</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="G130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I130" s="1" t="s">
+      <c r="H131" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G131" s="10"/>
-      <c r="I131" s="10"/>
-    </row>
-    <row r="132" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C132" s="2" t="s">
+    <row r="135" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G135" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G132" s="10"/>
-      <c r="I132" s="10"/>
-    </row>
-    <row r="133" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="2" t="s">
+      <c r="H135" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I137" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I139" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I141" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" t="s">
+        <v>190</v>
+      </c>
+      <c r="E142" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" t="s">
+        <v>190</v>
+      </c>
+      <c r="G142" t="s">
+        <v>198</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D143" t="s">
+        <v>190</v>
+      </c>
+      <c r="E143" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" t="s">
+        <v>198</v>
+      </c>
+      <c r="G143" t="s">
+        <v>199</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E144" t="s">
+        <v>199</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I144" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G145" t="s">
+        <v>198</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I145" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" t="s">
+        <v>190</v>
+      </c>
+      <c r="G146" t="s">
+        <v>198</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F147" t="s">
+        <v>198</v>
+      </c>
+      <c r="G147" t="s">
+        <v>199</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>85</v>
+      </c>
+      <c r="F148" t="s">
+        <v>198</v>
+      </c>
+      <c r="G148" t="s">
+        <v>199</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I149" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F150" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I150" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F151" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I151" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I153" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G154" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I154" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>85</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I156" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I157" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I158" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I159" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I160" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I161" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G162" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G163" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I163" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I164" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G165" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G133" s="10"/>
-      <c r="I133" s="10"/>
-    </row>
-    <row r="134" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="2" t="s">
+      <c r="E170" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G134" s="10"/>
-      <c r="I134" s="10"/>
-    </row>
-    <row r="135" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G135" s="10"/>
-      <c r="I135" s="10"/>
-    </row>
-    <row r="136" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G136" s="10"/>
-      <c r="I136" s="10"/>
-    </row>
-    <row r="137" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G137" s="10"/>
-      <c r="I137" s="10"/>
-    </row>
-    <row r="138" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="B171" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I138" s="1" t="s">
+      <c r="F171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I171" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" s="1" t="s">
+    <row r="172" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G172" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I139" s="1" t="s">
+      <c r="H172" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I172" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E140" s="1" t="s">
+    <row r="173" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I140" s="1" t="s">
+      <c r="F173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I173" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G141" s="1" t="s">
+    <row r="174" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I141" s="1" t="s">
+      <c r="H174" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I174" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E142" s="1" t="s">
+    <row r="175" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I142" s="1" t="s">
+      <c r="F175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I175" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E143" s="1" t="s">
+    <row r="176" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G144" s="1" t="s">
+      <c r="F176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+      <c r="F178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F148" s="3" t="s">
+      <c r="C179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F179" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G148" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I151" s="1" t="s">
+      <c r="G179" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I179" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5285,4 +6446,34 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552F3FAE-88BC-B24A-9A84-3394D8C074D5}">
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/sets_intersections.xlsx
+++ b/docs/sets_intersections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08162445-1477-EB48-B978-14CFFC0E715E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32868F0D-5F6B-634B-875C-B3D6CAE5D57C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31780" yWindow="-5140" windowWidth="35080" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
+    <workbookView xWindow="-37520" yWindow="-5140" windowWidth="35080" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
   </bookViews>
   <sheets>
     <sheet name="intersections" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="254">
   <si>
     <t>ccc</t>
   </si>
@@ -664,9 +664,6 @@
     <t>what is the extent of people from each ethnic group in wikidata?</t>
   </si>
   <si>
-    <t>what is the extent of people from each ethnic group in this language edition?</t>
-  </si>
-  <si>
     <t>what is the extent of people from each ethnic group in CCC?</t>
   </si>
   <si>
@@ -700,9 +697,6 @@
     <t>generate_ethnic_groups_intersections</t>
   </si>
   <si>
-    <t>what is the extent of people from each ethnic group in Wikipedia people?</t>
-  </si>
-  <si>
     <t>what is the extent of people from each ethnic group in a Wikipedia language edition?</t>
   </si>
   <si>
@@ -712,24 +706,15 @@
     <t>time</t>
   </si>
   <si>
-    <t>alive</t>
-  </si>
-  <si>
     <t>start_time</t>
   </si>
   <si>
     <t>what is the extent of items with a time-related property in wikidata?</t>
   </si>
   <si>
-    <t>what is the extent of people alive?</t>
-  </si>
-  <si>
     <t>what is the extent of people with a start time?</t>
   </si>
   <si>
-    <t>what is the extent of people articles alive in this language edition?</t>
-  </si>
-  <si>
     <t>what is the extent of people articles with start time in this language edition?</t>
   </si>
   <si>
@@ -745,7 +730,64 @@
     <t>what is the extent of female articles with start time in this language edition?</t>
   </si>
   <si>
-    <t>what is the extent of CCC articles with start or end time in this language edition?</t>
+    <t>century</t>
+  </si>
+  <si>
+    <t>what is the extent of people with a start time in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of articles with start time in each century in this language edition?</t>
+  </si>
+  <si>
+    <t>ccc_time</t>
+  </si>
+  <si>
+    <t>what is the extent of articles with start time in each century in this language CCC?</t>
+  </si>
+  <si>
+    <t>century_name</t>
+  </si>
+  <si>
+    <t>what is the extent of geolocated with a start time?</t>
+  </si>
+  <si>
+    <t>what is the extent of geolocated with a start time in this language edition?</t>
+  </si>
+  <si>
+    <t>how well time-related property wikidata covered by a language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of articles related to lgbt in this language edition?</t>
+  </si>
+  <si>
+    <t>lgbt_topics</t>
+  </si>
+  <si>
+    <t>ethnic_group_topic</t>
+  </si>
+  <si>
+    <t>what is the extent of articles from each ethnic group in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of articles from each ethnic group collection of topics in a Wikipedia language edition?</t>
+  </si>
+  <si>
+    <t>how well this language edition covers articles about this ethnic group topic?</t>
+  </si>
+  <si>
+    <t>wikidata_articles_qitems_ethnic_group</t>
+  </si>
+  <si>
+    <t>wikidata_articles_qitems_ethnic_group_topic</t>
+  </si>
+  <si>
+    <t>what is the extent of the time-related articles in last month created articles?</t>
+  </si>
+  <si>
+    <t>what is the extent of people from an ethnic group in Wikipedia people?</t>
+  </si>
+  <si>
+    <t>what is the extent of CCC articles with start time in this language edition?</t>
   </si>
 </sst>
 </file>
@@ -776,7 +818,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +861,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -843,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -865,6 +919,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,10 +1026,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I179" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:I179" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
-  <sortState ref="A3:I179">
-    <sortCondition ref="A2:A179"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I191" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:I191" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
+  <sortState ref="A3:I191">
+    <sortCondition ref="A2:A191"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A6E15DC7-B722-374E-B3D6-3AA0ED59483E}" name="function"/>
@@ -1287,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426F6B2-14A9-484B-8624-F4CD6D7B5D64}">
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="I166" sqref="I166"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4274,7 +4330,7 @@
         <v>84</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4303,7 +4359,7 @@
         <v>84</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4332,94 +4388,94 @@
         <v>84</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>137</v>
+      <c r="A107" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>82</v>
+        <v>131</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>122</v>
+      <c r="A108" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I108" s="22" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>123</v>
+      <c r="A109" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I109" s="22" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4439,16 +4495,16 @@
         <v>6</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4467,17 +4523,17 @@
       <c r="E111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>14</v>
+      <c r="F111" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4490,14 +4546,14 @@
       <c r="C112" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>6</v>
+      <c r="D112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>111</v>
@@ -4506,7 +4562,7 @@
         <v>81</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4519,20 +4575,23 @@
       <c r="C113" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>180</v>
+      <c r="D113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4545,20 +4604,23 @@
       <c r="C114" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>181</v>
+      <c r="D114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4578,103 +4640,97 @@
         <v>6</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I115" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>139</v>
       </c>
@@ -4688,19 +4744,19 @@
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4717,19 +4773,19 @@
         <v>7</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4746,19 +4802,19 @@
         <v>7</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4775,24 +4831,24 @@
         <v>7</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>126</v>
@@ -4801,77 +4857,80 @@
         <v>28</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>29</v>
+      <c r="D124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I124" s="3" t="s">
-        <v>75</v>
+      <c r="I124" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>30</v>
+      <c r="D125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I125" s="3" t="s">
-        <v>74</v>
+      <c r="I125" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4887,20 +4946,17 @@
       <c r="D126" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F126" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4910,26 +4966,26 @@
       <c r="B127" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="H127" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>78</v>
+      <c r="I127" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4939,26 +4995,26 @@
       <c r="B128" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="H128" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>77</v>
+      <c r="I128" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4966,28 +5022,28 @@
         <v>138</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F129" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="E129" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H129" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4995,28 +5051,28 @@
         <v>138</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" s="3" t="s">
+      <c r="D130" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="E130" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H130" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5024,28 +5080,28 @@
         <v>138</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" s="3" t="s">
+      <c r="D131" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="E131" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F131" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H131" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5053,28 +5109,28 @@
         <v>138</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="H132" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5082,28 +5138,28 @@
         <v>138</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="G133" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="H133" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5111,120 +5167,120 @@
         <v>138</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="G134" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="H134" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I134" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I135" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I137" s="18" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>126</v>
@@ -5232,13 +5288,13 @@
       <c r="C138" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D138" s="11" t="s">
-        <v>7</v>
+      <c r="D138" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F138" s="2" t="s">
         <v>190</v>
       </c>
       <c r="G138" s="10" t="s">
@@ -5248,73 +5304,73 @@
         <v>84</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>6</v>
+        <v>190</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I139" s="10" t="s">
-        <v>195</v>
+      <c r="I139" s="11" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>28</v>
+        <v>190</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>197</v>
+        <v>7</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I140" s="11" t="s">
-        <v>194</v>
+      <c r="I140" s="18" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>191</v>
@@ -5322,136 +5378,136 @@
       <c r="D141" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I141" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I143" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F141" s="11" t="s">
+      <c r="F145" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G141" s="11" t="s">
+      <c r="G145" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I141" s="11" t="s">
+      <c r="H145" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I145" s="11" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D142" t="s">
-        <v>190</v>
-      </c>
-      <c r="E142" t="s">
-        <v>28</v>
-      </c>
-      <c r="F142" t="s">
-        <v>190</v>
-      </c>
-      <c r="G142" t="s">
-        <v>198</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I142" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D143" t="s">
-        <v>190</v>
-      </c>
-      <c r="E143" t="s">
-        <v>28</v>
-      </c>
-      <c r="F143" t="s">
-        <v>198</v>
-      </c>
-      <c r="G143" t="s">
-        <v>199</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I143" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E144" t="s">
-        <v>199</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I144" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G145" t="s">
-        <v>198</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I145" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5459,16 +5515,16 @@
         <v>201</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>6</v>
+        <v>190</v>
+      </c>
+      <c r="E146" t="s">
+        <v>28</v>
       </c>
       <c r="F146" t="s">
         <v>190</v>
@@ -5480,7 +5536,7 @@
         <v>84</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5488,15 +5544,15 @@
         <v>201</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E147" t="s">
         <v>28</v>
       </c>
       <c r="F147" t="s">
@@ -5509,7 +5565,7 @@
         <v>84</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5517,161 +5573,161 @@
         <v>201</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D148" t="s">
-        <v>7</v>
+      <c r="D148" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="E148" t="s">
+        <v>199</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I148" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G149" t="s">
+        <v>198</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I149" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150" t="s">
+        <v>190</v>
+      </c>
+      <c r="G150" t="s">
+        <v>198</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" t="s">
+        <v>198</v>
+      </c>
+      <c r="G151" t="s">
+        <v>199</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I151" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
         <v>85</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F152" t="s">
         <v>198</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G152" t="s">
         <v>199</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I148" s="11" t="s">
+      <c r="H152" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I152" s="11" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E149" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F149" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G149" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I149" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E150" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F150" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I150" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F151" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I151" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I152" s="11" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>6</v>
+        <v>190</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F153" s="15" t="s">
         <v>190</v>
@@ -5682,25 +5738,25 @@
       <c r="H153" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I153" s="11" t="s">
-        <v>225</v>
+      <c r="I153" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D154" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>6</v>
+      <c r="D154" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F154" s="15" t="s">
         <v>207</v>
@@ -5712,733 +5768,1081 @@
         <v>84</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D155" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" t="s">
-        <v>85</v>
-      </c>
-      <c r="F155" s="15" t="s">
+      <c r="D155" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F155" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I155" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F156" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I156" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G157" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="G155" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G156" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I156" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F157" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G157" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="H157" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I157" s="18" t="s">
-        <v>231</v>
+      <c r="I157" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>126</v>
+      <c r="A158" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E158" s="15" t="s">
-        <v>28</v>
+        <v>209</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I158" s="18" t="s">
-        <v>232</v>
+      <c r="I158" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="159" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="19" t="s">
-        <v>226</v>
+      <c r="A159" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E159" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>71</v>
+      <c r="E159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I159" s="18" t="s">
-        <v>236</v>
+      <c r="I159" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="19" t="s">
-        <v>226</v>
+      <c r="A160" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E160" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>71</v>
+        <v>209</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I160" s="18" t="s">
-        <v>235</v>
+      <c r="I160" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="19" t="s">
-        <v>226</v>
+      <c r="A161" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>71</v>
+        <v>209</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" t="s">
+        <v>85</v>
+      </c>
+      <c r="F161" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I161" s="18" t="s">
-        <v>234</v>
+      <c r="I161" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F162" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G162" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G162" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="H162" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I162" s="11" t="s">
-        <v>233</v>
+      <c r="I162" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F163" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G163" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F163" s="11" t="s">
+      <c r="H163" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I163" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G163" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I163" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="20" t="s">
+      <c r="E164" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F164" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G164" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F164" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="H164" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F165" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G165" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="H165" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I165" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F166" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G166" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I166" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="F167" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G167" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I167" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F168" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G168" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I168" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F169" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I169" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G170" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I170" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D165" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E165" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F165" s="11" t="s">
+    </row>
+    <row r="171" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D171" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G165" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I165" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>6</v>
+      <c r="G171" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I171" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>187</v>
+      <c r="I171" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="15" t="s">
         <v>6</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I172" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>187</v>
+      <c r="I172" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>6</v>
+        <v>225</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G173" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I173" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>187</v>
+      <c r="I173" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>163</v>
+        <v>225</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G174" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I174" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>187</v>
+      <c r="I174" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>6</v>
+        <v>225</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G175" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I175" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>142</v>
+      <c r="I175" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>6</v>
+        <v>130</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I176" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>142</v>
+      <c r="I176" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>6</v>
+        <v>130</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I177" s="1" t="s">
-        <v>113</v>
+      <c r="I177" s="11" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>94</v>
+        <v>126</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F178" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" s="3" t="s">
+      <c r="F178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="179" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="C188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E190" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="F191" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G179" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I179" s="1" t="s">
+      <c r="G191" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I191" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/sets_intersections.xlsx
+++ b/docs/sets_intersections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32868F0D-5F6B-634B-875C-B3D6CAE5D57C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE74A55-814D-BE4E-81A5-83CC15EB85CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37520" yWindow="-5140" windowWidth="35080" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
+    <workbookView xWindow="-37520" yWindow="-5140" windowWidth="32960" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
   </bookViews>
   <sheets>
     <sheet name="intersections" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="257">
   <si>
     <t>ccc</t>
   </si>
@@ -97,9 +97,6 @@
     <t>what is the average extent of this language ccc in all the languages ccc?</t>
   </si>
   <si>
-    <t>how well this language edition covered all CCC articles in average?</t>
-  </si>
-  <si>
     <t>all_ccc_avg</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>what is the degree of coincidence between language 1 ccc and language 2 ccc?</t>
   </si>
   <si>
-    <t>how well language 1 covers language 2?</t>
-  </si>
-  <si>
     <t>people</t>
   </si>
   <si>
@@ -148,15 +142,6 @@
     <t>what is the extent of female in this language edition ccc?</t>
   </si>
   <si>
-    <t>how well this language edition covers all the people accounted in wikidata?</t>
-  </si>
-  <si>
-    <t>how well this language edition covers all the male accounted in wikidata?</t>
-  </si>
-  <si>
-    <t>how well this language edition covers all the female accounted in wikidata?</t>
-  </si>
-  <si>
     <t>what is the extent of this language ccc in all wikidata qitems?</t>
   </si>
   <si>
@@ -187,15 +172,6 @@
     <t>what is the extent of this subregion geolocated items in all geolocated items?</t>
   </si>
   <si>
-    <t>how well the geolocated articles from this language edition cover all the items from this country?</t>
-  </si>
-  <si>
-    <t>how well the geolocated articles from this language edition cover all the items from this subregion?</t>
-  </si>
-  <si>
-    <t>how well the geolocated articles from this language edition cover all the items from this region (continent)?</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -208,9 +184,6 @@
     <t>what is the extent of ccc keywords articles in last month created articles?</t>
   </si>
   <si>
-    <t>how well the last month created articles from language 1 covers language 2 ccc?</t>
-  </si>
-  <si>
     <t>what is the extent of male articles in last month created articles?</t>
   </si>
   <si>
@@ -340,9 +313,6 @@
     <t>what is the extent of this language ccc in all ccc articles?</t>
   </si>
   <si>
-    <t>how well this language edition covered all CCC articles?</t>
-  </si>
-  <si>
     <t>list_name_500_window_computed</t>
   </si>
   <si>
@@ -364,27 +334,9 @@
     <t>all_top_articles</t>
   </si>
   <si>
-    <t>how well this language edition covers this list of language list of ccc top articles?</t>
-  </si>
-  <si>
-    <t>how well this language edition covers this list of ccc top articles for all languages?</t>
-  </si>
-  <si>
-    <t>how well this language edition covers this list of country list ccc top articles?</t>
-  </si>
-  <si>
-    <t>how well this language edition covers this list of ccc top articles for all countries?</t>
-  </si>
-  <si>
-    <t>how well this language edition covers this list of ccc top articles in all languages?</t>
-  </si>
-  <si>
     <t>what is the extent of a list in ccc top articles from all languages in this language?</t>
   </si>
   <si>
-    <t>how well this language edition covers all the ccc top articles lists?</t>
-  </si>
-  <si>
     <t>what is the extent of all ccc top articles lists in this language edition?</t>
   </si>
   <si>
@@ -667,15 +619,6 @@
     <t>what is the extent of people from each ethnic group in CCC?</t>
   </si>
   <si>
-    <t>how well this language edition covers articles about this sexual orientation?</t>
-  </si>
-  <si>
-    <t>how well this language edition covers articles about this religious group?</t>
-  </si>
-  <si>
-    <t>how well this language edition covers articles about this ethnic group?</t>
-  </si>
-  <si>
     <t>what is the extent of this ethnic group articles in last month created articles?</t>
   </si>
   <si>
@@ -772,9 +715,6 @@
     <t>what is the extent of articles from each ethnic group collection of topics in a Wikipedia language edition?</t>
   </si>
   <si>
-    <t>how well this language edition covers articles about this ethnic group topic?</t>
-  </si>
-  <si>
     <t>wikidata_articles_qitems_ethnic_group</t>
   </si>
   <si>
@@ -788,6 +728,75 @@
   </si>
   <si>
     <t>what is the extent of CCC articles with start time in this language edition?</t>
+  </si>
+  <si>
+    <t>what is the extent of this lgbt_topics articles in last month created articles?</t>
+  </si>
+  <si>
+    <t>what is the extent of this ethnic group topic articles in last month created articles?</t>
+  </si>
+  <si>
+    <t>how well does this language edition covered all CCC articles?</t>
+  </si>
+  <si>
+    <t>how well does this language edition covered all CCC articles in average?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover all the lgtb related articles available in wikidata?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover articles about this religious group?</t>
+  </si>
+  <si>
+    <t>how well language 1 cover language 2?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover all the people accounted in wikidata?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover all the male accounted in wikidata?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover all the female accounted in wikidata?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover articles about this sexual orientation?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover articles about this ethnic group?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover articles about this ethnic group topic?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover this list of ccc top articles in all languages?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover all the ccc top articles lists?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover this list of language list of ccc top articles?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover this list of ccc top articles for all languages?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover this list of country list ccc top articles?</t>
+  </si>
+  <si>
+    <t>how well does this language edition cover this list of ccc top articles for all countries?</t>
+  </si>
+  <si>
+    <t>how well do the geolocated articles from this language edition cover all the items from this country?</t>
+  </si>
+  <si>
+    <t>how well do the geolocated articles from this language edition cover all the items from this subregion?</t>
+  </si>
+  <si>
+    <t>how well do the geolocated articles from this language edition cover all the items from this region (continent)?</t>
+  </si>
+  <si>
+    <t>how well do the last month created articles from language 1 cover language 2 ccc?</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1035,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I191" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:I191" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
-  <sortState ref="A3:I191">
-    <sortCondition ref="A2:A191"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I192" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:I192" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
+  <sortState ref="A3:I192">
+    <sortCondition ref="A2:A192"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A6E15DC7-B722-374E-B3D6-3AA0ED59483E}" name="function"/>
@@ -1343,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426F6B2-14A9-484B-8624-F4CD6D7B5D64}">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="F195" sqref="F195"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,33 +1373,33 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>8</v>
@@ -1398,10 +1407,10 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1419,24 +1428,24 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -1445,18 +1454,18 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1471,21 +1480,21 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -1500,21 +1509,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -1529,21 +1538,21 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -1558,21 +1567,21 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1590,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>9</v>
@@ -1598,10 +1607,10 @@
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -1619,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -1627,10 +1636,10 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -1648,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -1656,10 +1665,10 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -1674,21 +1683,21 @@
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -1706,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
@@ -1714,10 +1723,10 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -1735,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>13</v>
@@ -1743,10 +1752,10 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -1758,24 +1767,24 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -1787,24 +1796,24 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -1816,24 +1825,24 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -1845,24 +1854,24 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -1874,24 +1883,24 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -1903,24 +1912,24 @@
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -1932,24 +1941,24 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -1961,24 +1970,24 @@
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -1990,24 +1999,24 @@
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -2019,24 +2028,24 @@
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -2048,24 +2057,24 @@
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -2077,24 +2086,24 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -2106,24 +2115,24 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -2135,24 +2144,24 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -2164,24 +2173,24 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -2193,24 +2202,24 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -2222,24 +2231,24 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -2251,24 +2260,24 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -2280,24 +2289,24 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -2309,24 +2318,24 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -2338,24 +2347,24 @@
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2367,398 +2376,398 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>7</v>
@@ -2770,24 +2779,24 @@
         <v>3</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
@@ -2799,24 +2808,24 @@
         <v>5</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>7</v>
@@ -2828,201 +2837,201 @@
         <v>4</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
@@ -3031,24 +3040,24 @@
         <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
@@ -3057,44 +3066,44 @@
         <v>6</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>104</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>0</v>
@@ -3112,7 +3121,7 @@
         <v>6</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>16</v>
@@ -3120,10 +3129,10 @@
     </row>
     <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
@@ -3141,7 +3150,7 @@
         <v>6</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>17</v>
@@ -3149,10 +3158,10 @@
     </row>
     <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -3170,7 +3179,7 @@
         <v>6</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>18</v>
@@ -3178,10 +3187,10 @@
     </row>
     <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -3199,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>19</v>
@@ -3207,10 +3216,10 @@
     </row>
     <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -3228,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>20</v>
@@ -3236,10 +3245,10 @@
     </row>
     <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -3257,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>21</v>
@@ -3265,16 +3274,16 @@
     </row>
     <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>15</v>
@@ -3283,18 +3292,18 @@
         <v>6</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
@@ -3309,10 +3318,10 @@
         <v>14</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>22</v>
@@ -3320,10 +3329,10 @@
     </row>
     <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>6</v>
@@ -3341,18 +3350,18 @@
         <v>6</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>6</v>
@@ -3367,21 +3376,21 @@
         <v>7</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>6</v>
@@ -3396,21 +3405,21 @@
         <v>7</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>6</v>
@@ -3425,24 +3434,24 @@
         <v>7</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>7</v>
@@ -3457,21 +3466,21 @@
         <v>6</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>7</v>
@@ -3486,21 +3495,21 @@
         <v>0</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>7</v>
@@ -3515,21 +3524,21 @@
         <v>1</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>7</v>
@@ -3544,21 +3553,21 @@
         <v>2</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>7</v>
@@ -3570,24 +3579,24 @@
         <v>7</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>7</v>
@@ -3602,21 +3611,21 @@
         <v>0</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>7</v>
@@ -3628,24 +3637,24 @@
         <v>7</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>7</v>
@@ -3657,24 +3666,24 @@
         <v>7</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>7</v>
@@ -3686,24 +3695,24 @@
         <v>7</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>7</v>
@@ -3712,27 +3721,27 @@
         <v>6</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>7</v>
@@ -3744,24 +3753,24 @@
         <v>3</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>7</v>
@@ -3773,24 +3782,24 @@
         <v>5</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>7</v>
@@ -3802,111 +3811,111 @@
         <v>4</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>7</v>
@@ -3915,27 +3924,27 @@
         <v>6</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>7</v>
@@ -3947,88 +3956,88 @@
         <v>0</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>7</v>
@@ -4037,85 +4046,85 @@
         <v>0</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>7</v>
@@ -4124,85 +4133,85 @@
         <v>0</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>7</v>
@@ -4211,85 +4220,85 @@
         <v>0</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>7</v>
@@ -4298,21 +4307,21 @@
         <v>0</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>7</v>
@@ -4321,27 +4330,27 @@
         <v>6</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>7</v>
@@ -4350,27 +4359,27 @@
         <v>6</v>
       </c>
       <c r="F105" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>7</v>
@@ -4379,27 +4388,27 @@
         <v>6</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D107" s="13" t="s">
         <v>7</v>
@@ -4408,27 +4417,27 @@
         <v>6</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D108" s="22" t="s">
         <v>7</v>
@@ -4440,24 +4449,24 @@
         <v>7</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D109" s="22" t="s">
         <v>7</v>
@@ -4469,24 +4478,24 @@
         <v>7</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>7</v>
@@ -4501,21 +4510,21 @@
         <v>0</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>7</v>
@@ -4527,24 +4536,24 @@
         <v>7</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>7</v>
@@ -4556,24 +4565,24 @@
         <v>7</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>7</v>
@@ -4585,24 +4594,24 @@
         <v>0</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>7</v>
@@ -4617,21 +4626,21 @@
         <v>0</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>7</v>
@@ -4643,24 +4652,24 @@
         <v>14</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>7</v>
@@ -4669,24 +4678,24 @@
         <v>6</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>7</v>
@@ -4695,24 +4704,24 @@
         <v>6</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>7</v>
@@ -4721,30 +4730,30 @@
         <v>6</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
@@ -4753,27 +4762,27 @@
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
@@ -4782,28 +4791,28 @@
         <v>0</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F121" s="1" t="s">
         <v>7</v>
       </c>
@@ -4811,21 +4820,21 @@
         <v>0</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>7</v>
@@ -4837,24 +4846,24 @@
         <v>7</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>7</v>
@@ -4866,53 +4875,53 @@
         <v>7</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H124" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>7</v>
@@ -4924,195 +4933,195 @@
         <v>7</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="H128" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F131" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G131" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>7</v>
@@ -5121,27 +5130,27 @@
         <v>6</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>7</v>
@@ -5150,62 +5159,62 @@
         <v>6</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G134" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G134" s="3" t="s">
+      <c r="H134" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>7</v>
@@ -5214,27 +5223,27 @@
         <v>6</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>7</v>
@@ -5243,28 +5252,28 @@
         <v>6</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F137" s="1" t="s">
         <v>7</v>
       </c>
@@ -5272,85 +5281,85 @@
         <v>6</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>7</v>
@@ -5359,50 +5368,50 @@
         <v>6</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I140" s="18" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>7</v>
@@ -5411,27 +5420,27 @@
         <v>6</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D143" s="11" t="s">
         <v>7</v>
@@ -5440,381 +5449,381 @@
         <v>6</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>28</v>
+        <v>174</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>197</v>
+        <v>7</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I144" s="11" t="s">
-        <v>194</v>
+        <v>75</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E145" s="11" t="s">
-        <v>85</v>
+      <c r="E145" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="16" t="s">
-        <v>201</v>
+      <c r="A146" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D146" t="s">
-        <v>190</v>
-      </c>
-      <c r="E146" t="s">
-        <v>28</v>
-      </c>
-      <c r="F146" t="s">
-        <v>190</v>
-      </c>
-      <c r="G146" t="s">
-        <v>198</v>
+        <v>175</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I146" s="10" t="s">
-        <v>202</v>
+        <v>75</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D147" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E147" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F147" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="G147" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I147" s="11" t="s">
-        <v>203</v>
+        <v>75</v>
+      </c>
+      <c r="I147" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="16" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
+      </c>
+      <c r="D148" t="s">
+        <v>174</v>
       </c>
       <c r="E148" t="s">
-        <v>199</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="F148" t="s">
+        <v>182</v>
+      </c>
+      <c r="G148" t="s">
+        <v>183</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I148" s="18" t="s">
-        <v>214</v>
+        <v>75</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="16" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>28</v>
+        <v>174</v>
+      </c>
+      <c r="E149" t="s">
+        <v>183</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G149" t="s">
-        <v>198</v>
+        <v>7</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I149" s="10" t="s">
-        <v>220</v>
+        <v>75</v>
+      </c>
+      <c r="I149" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G150" t="s">
+        <v>182</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I150" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D150" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F150" t="s">
-        <v>190</v>
-      </c>
-      <c r="G150" t="s">
-        <v>198</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I150" s="10" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="16" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F151" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="G151" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I151" s="11" t="s">
-        <v>205</v>
+        <v>75</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
       </c>
-      <c r="E152" t="s">
-        <v>85</v>
+      <c r="E152" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F152" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G152" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="17" t="s">
-        <v>222</v>
+      <c r="A153" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D153" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>76</v>
+      </c>
+      <c r="F153" t="s">
+        <v>182</v>
+      </c>
+      <c r="G153" t="s">
+        <v>183</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I153" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I153" s="10" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="G154" s="15" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I154" s="11" t="s">
-        <v>211</v>
+        <v>75</v>
+      </c>
+      <c r="I154" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F155" t="s">
-        <v>7</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I155" s="18" t="s">
-        <v>215</v>
+        <v>75</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F156" t="s">
         <v>7</v>
@@ -5823,79 +5832,79 @@
         <v>6</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I156" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F157" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G157" s="15" t="s">
-        <v>207</v>
+        <v>230</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F157" t="s">
+        <v>7</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>252</v>
+        <v>75</v>
+      </c>
+      <c r="I157" s="18" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="159" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>7</v>
@@ -5904,373 +5913,373 @@
         <v>6</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D160" t="s">
+        <v>193</v>
+      </c>
+      <c r="D160" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
       </c>
-      <c r="E161" t="s">
-        <v>85</v>
+      <c r="E161" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F161" s="15" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>126</v>
+      <c r="A162" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E162" s="15" t="s">
-        <v>44</v>
+        <v>193</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" t="s">
+        <v>76</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I162" s="18" t="s">
-        <v>240</v>
+        <v>75</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>7</v>
+        <v>206</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G163" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>71</v>
+        <v>206</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G164" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D165" s="15" t="s">
-        <v>7</v>
+        <v>206</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G165" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="G166" s="15" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>237</v>
+        <v>206</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="F167" s="15" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="G167" s="15" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>225</v>
+      <c r="E168" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I168" s="18" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>225</v>
+        <v>206</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G169" s="15" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I169" s="18" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E170" s="15"/>
+        <v>62</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>206</v>
+      </c>
       <c r="F170" s="15" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="G170" s="15" t="s">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>130</v>
+        <v>205</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D171" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>71</v>
+        <v>206</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="G171" s="15" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D172" s="15" t="s">
         <v>7</v>
@@ -6279,323 +6288,323 @@
         <v>6</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E173" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>71</v>
+        <v>6</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G173" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I173" s="18" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E174" s="15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I174" s="18" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="175" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E175" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I175" s="18" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="176" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="20" t="s">
-        <v>224</v>
+      <c r="A176" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>30</v>
+        <v>206</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G176" s="11" t="s">
-        <v>226</v>
+        <v>62</v>
+      </c>
+      <c r="G176" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I176" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I177" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I178" s="11" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D177" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E177" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G177" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="179" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>7</v>
@@ -6604,163 +6613,163 @@
         <v>6</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="186" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C188" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>0</v>
@@ -6769,7 +6778,7 @@
         <v>15</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>14</v>
@@ -6778,27 +6787,27 @@
         <v>6</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
     </row>
     <row r="190" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>94</v>
+      <c r="D190" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>14</v>
@@ -6807,27 +6816,27 @@
         <v>6</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
     </row>
     <row r="191" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>14</v>
@@ -6836,13 +6845,42 @@
         <v>6</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/sets_intersections.xlsx
+++ b/docs/sets_intersections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE74A55-814D-BE4E-81A5-83CC15EB85CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104AF293-CD34-AC42-B49E-C7A2C787CC7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37520" yWindow="-5140" windowWidth="32960" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
+    <workbookView xWindow="-38420" yWindow="-5120" windowWidth="38400" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
   </bookViews>
   <sheets>
     <sheet name="intersections" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="292">
   <si>
     <t>ccc</t>
   </si>
@@ -797,6 +797,111 @@
   </si>
   <si>
     <t>how well do the last month created articles from language 1 cover language 2 ccc?</t>
+  </si>
+  <si>
+    <t>1 stackedbar</t>
+  </si>
+  <si>
+    <t>2 scatterplot</t>
+  </si>
+  <si>
+    <t>3 barchart</t>
+  </si>
+  <si>
+    <t>4 scatterplot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_over_time </t>
+  </si>
+  <si>
+    <t>last_month_pageviews</t>
+  </si>
+  <si>
+    <t>Content Type</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Graph Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>lgbt_topics_coverage_extent</t>
+  </si>
+  <si>
+    <t>sexual_orientation_wikidata_extent</t>
+  </si>
+  <si>
+    <t>sexual_orientation_wikipedia_extent</t>
+  </si>
+  <si>
+    <t>sexual_orientation_types_coverage</t>
+  </si>
+  <si>
+    <t>sexual_orientation_types_wikidata_extent</t>
+  </si>
+  <si>
+    <t>sexual_orientation_types_wikipedia_extent</t>
+  </si>
+  <si>
+    <t>sexual_orientation_types_ccc_extent</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ethnic_group_names_wikipedia_extent</t>
+  </si>
+  <si>
+    <t>ethnic_group_names_ccc_extent</t>
+  </si>
+  <si>
+    <t>ethnic_group_topics_coverage_extent</t>
+  </si>
+  <si>
+    <t>ethnic_group_wikipedia_extent</t>
+  </si>
+  <si>
+    <t>ethnic_group_wikidata_extent</t>
+  </si>
+  <si>
+    <t>ethnic_group_names_wikidata_extent</t>
+  </si>
+  <si>
+    <t>ethnic_group_names_coverage</t>
+  </si>
+  <si>
+    <t>religious_group_names_wikipedia_extent</t>
+  </si>
+  <si>
+    <t>religious_group_names_ccc_extent</t>
+  </si>
+  <si>
+    <t>religious_group_wikipedia_extent</t>
+  </si>
+  <si>
+    <t>religious_group_wikidata_extent</t>
+  </si>
+  <si>
+    <t>religios_group_names_wikidata_extent</t>
+  </si>
+  <si>
+    <t>religious_group_names_coverage</t>
+  </si>
+  <si>
+    <t>religious_group_type</t>
+  </si>
+  <si>
+    <t>wikidata_articles_qitems_religious_group</t>
+  </si>
+  <si>
+    <t>top_articles_lists</t>
   </si>
 </sst>
 </file>
@@ -906,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -930,6 +1035,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,15 +1141,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:I192" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:I192" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
-  <sortState ref="A3:I192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:M192" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:M192" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
+  <sortState ref="A3:M192">
     <sortCondition ref="A2:A192"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{A6E15DC7-B722-374E-B3D6-3AA0ED59483E}" name="function"/>
     <tableColumn id="2" xr3:uid="{A168ABB2-CE3B-8A46-86F9-0AE5B7443802}" name="running"/>
     <tableColumn id="3" xr3:uid="{CD40B044-4AF6-A74D-9860-DB9CF592FD82}" name="main set" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{4A84445F-4EE1-4A47-B007-E94EEF1DFDF9}" name="Column1"/>
+    <tableColumn id="12" xr3:uid="{7DA96AA3-DA42-D041-9796-77EAB497F8F6}" name="Content Type"/>
+    <tableColumn id="10" xr3:uid="{DC512BB2-9801-DB49-BE7A-9E8061391DA4}" name="Graph Type"/>
+    <tableColumn id="11" xr3:uid="{77171AF0-5880-5F47-9947-BF24360FD95B}" name="Reference"/>
     <tableColumn id="4" xr3:uid="{9C403BD0-6E7E-5C40-8692-3ACD8B1EECBD}" name="set1" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{2EE57DC2-2BF3-A74B-B1F8-5742A98C3050}" name="set1descriptor" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{16683237-B75A-BD44-8DCE-EADBC7ABC95A}" name="set2" dataDxfId="3"/>
@@ -1352,31 +1462,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426F6B2-14A9-484B-8624-F4CD6D7B5D64}">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="92.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
@@ -1387,25 +1499,37 @@
         <v>86</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
@@ -1415,26 +1539,26 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
@@ -1444,23 +1568,23 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>127</v>
       </c>
@@ -1470,26 +1594,26 @@
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>127</v>
       </c>
@@ -1499,26 +1623,26 @@
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>127</v>
       </c>
@@ -1528,26 +1652,26 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -1557,26 +1681,26 @@
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>117</v>
       </c>
@@ -1586,26 +1710,26 @@
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>117</v>
       </c>
@@ -1615,26 +1739,26 @@
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -1644,26 +1768,26 @@
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -1673,26 +1797,26 @@
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="L12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
@@ -1702,26 +1826,26 @@
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>117</v>
       </c>
@@ -1731,26 +1855,26 @@
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="L14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>150</v>
       </c>
@@ -1760,26 +1884,26 @@
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="L15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>150</v>
       </c>
@@ -1789,26 +1913,26 @@
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="10" t="s">
+      <c r="L16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>150</v>
       </c>
@@ -1818,26 +1942,26 @@
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="L17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>150</v>
       </c>
@@ -1847,26 +1971,26 @@
       <c r="C18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="L18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>150</v>
       </c>
@@ -1876,26 +2000,26 @@
       <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="L19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>150</v>
       </c>
@@ -1905,26 +2029,26 @@
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="L20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>150</v>
       </c>
@@ -1934,26 +2058,26 @@
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="10" t="s">
+      <c r="L21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>150</v>
       </c>
@@ -1963,26 +2087,26 @@
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="10" t="s">
+      <c r="L22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>150</v>
       </c>
@@ -1992,26 +2116,26 @@
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="L23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>150</v>
       </c>
@@ -2021,26 +2145,26 @@
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="10" t="s">
+      <c r="L24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>150</v>
       </c>
@@ -2050,26 +2174,26 @@
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="L25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>150</v>
       </c>
@@ -2079,26 +2203,26 @@
       <c r="C26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="L26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>150</v>
       </c>
@@ -2108,26 +2232,26 @@
       <c r="C27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="L27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>150</v>
       </c>
@@ -2137,26 +2261,26 @@
       <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="10" t="s">
+      <c r="L28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>150</v>
       </c>
@@ -2166,26 +2290,26 @@
       <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="H29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="10" t="s">
+      <c r="L29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>150</v>
       </c>
@@ -2195,26 +2319,26 @@
       <c r="C30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="10" t="s">
+      <c r="L30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>150</v>
       </c>
@@ -2224,26 +2348,26 @@
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="10" t="s">
+      <c r="L31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>150</v>
       </c>
@@ -2253,26 +2377,26 @@
       <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="10" t="s">
+      <c r="L32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>150</v>
       </c>
@@ -2282,26 +2406,26 @@
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="10" t="s">
+      <c r="L33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>150</v>
       </c>
@@ -2311,26 +2435,26 @@
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="10" t="s">
+      <c r="L34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>150</v>
       </c>
@@ -2340,26 +2464,26 @@
       <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="H35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="10" t="s">
+      <c r="L35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>150</v>
       </c>
@@ -2369,26 +2493,26 @@
       <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="10" t="s">
+      <c r="L36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
@@ -2398,23 +2522,23 @@
       <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="L37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>124</v>
       </c>
@@ -2424,23 +2548,23 @@
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="L38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>124</v>
       </c>
@@ -2450,26 +2574,26 @@
       <c r="C39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="L39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>124</v>
       </c>
@@ -2479,26 +2603,26 @@
       <c r="C40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="L40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>124</v>
       </c>
@@ -2508,26 +2632,26 @@
       <c r="C41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="L41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -2537,26 +2661,26 @@
       <c r="C42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="L42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
@@ -2566,26 +2690,26 @@
       <c r="C43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="L43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -2595,26 +2719,26 @@
       <c r="C44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="L44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>124</v>
       </c>
@@ -2624,26 +2748,26 @@
       <c r="C45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="J45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="L45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>124</v>
       </c>
@@ -2653,26 +2777,26 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="L46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>124</v>
       </c>
@@ -2682,26 +2806,26 @@
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="1" t="s">
+      <c r="L47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>124</v>
       </c>
@@ -2711,26 +2835,26 @@
       <c r="C48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="L48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>124</v>
       </c>
@@ -2740,26 +2864,26 @@
       <c r="C49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="L49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
@@ -2769,26 +2893,26 @@
       <c r="C50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="H50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="L50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>124</v>
       </c>
@@ -2798,26 +2922,26 @@
       <c r="C51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="H51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I51" s="2" t="s">
+      <c r="L51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>124</v>
       </c>
@@ -2827,26 +2951,26 @@
       <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="H52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="L52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -2856,26 +2980,26 @@
       <c r="C53" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="H53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I53" s="2" t="s">
+      <c r="L53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>124</v>
       </c>
@@ -2885,26 +3009,26 @@
       <c r="C54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="H54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54" s="1" t="s">
+      <c r="L54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>124</v>
       </c>
@@ -2914,26 +3038,26 @@
       <c r="C55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="H55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I55" s="1" t="s">
+      <c r="L55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>124</v>
       </c>
@@ -2943,26 +3067,26 @@
       <c r="C56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="J56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="L56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
@@ -2972,26 +3096,26 @@
       <c r="C57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="J57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="L57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>124</v>
       </c>
@@ -3001,26 +3125,26 @@
       <c r="C58" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="J58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="L58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
@@ -3030,23 +3154,23 @@
       <c r="C59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -3056,23 +3180,23 @@
       <c r="C60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
@@ -3082,23 +3206,23 @@
       <c r="C61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="J61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="L61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M61" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>118</v>
       </c>
@@ -3108,26 +3232,26 @@
       <c r="C62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="I62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="K62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>118</v>
       </c>
@@ -3137,26 +3261,26 @@
       <c r="C63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="K63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>118</v>
       </c>
@@ -3166,26 +3290,26 @@
       <c r="C64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I64" s="1" t="s">
+      <c r="K64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>118</v>
       </c>
@@ -3195,26 +3319,26 @@
       <c r="C65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="I65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="K65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>118</v>
       </c>
@@ -3224,26 +3348,26 @@
       <c r="C66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="I66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I66" s="1" t="s">
+      <c r="L66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>118</v>
       </c>
@@ -3253,26 +3377,26 @@
       <c r="C67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="I67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I67" s="1" t="s">
+      <c r="L67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>118</v>
       </c>
@@ -3282,23 +3406,23 @@
       <c r="C68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I68" s="1" t="s">
+      <c r="K68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>118</v>
       </c>
@@ -3308,26 +3432,26 @@
       <c r="C69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="I69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="L69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>116</v>
       </c>
@@ -3337,26 +3461,30 @@
       <c r="C70" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="I70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I70" s="8" t="s">
+      <c r="K70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M70" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>116</v>
       </c>
@@ -3366,26 +3494,30 @@
       <c r="C71" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I71" s="1" t="s">
+      <c r="L71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M71" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>116</v>
       </c>
@@ -3395,26 +3527,30 @@
       <c r="C72" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I72" s="1" t="s">
+      <c r="L72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>116</v>
       </c>
@@ -3424,26 +3560,30 @@
       <c r="C73" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I73" s="1" t="s">
+      <c r="L73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>120</v>
       </c>
@@ -3453,26 +3593,30 @@
       <c r="C74" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="I74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M74" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>120</v>
       </c>
@@ -3482,26 +3626,30 @@
       <c r="C75" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="I75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M75" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>120</v>
       </c>
@@ -3511,26 +3659,30 @@
       <c r="C76" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="4" t="s">
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I76" s="4" t="s">
+      <c r="L76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M76" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>120</v>
       </c>
@@ -3540,26 +3692,30 @@
       <c r="C77" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="4" t="s">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I77" s="4" t="s">
+      <c r="L77" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M77" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>120</v>
       </c>
@@ -3569,26 +3725,30 @@
       <c r="C78" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="4" t="s">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I78" s="6" t="s">
+      <c r="L78" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M78" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>120</v>
       </c>
@@ -3598,26 +3758,30 @@
       <c r="C79" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="4" t="s">
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I79" s="9" t="s">
+      <c r="K79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M79" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>120</v>
       </c>
@@ -3627,26 +3791,30 @@
       <c r="C80" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" s="6" t="s">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K80" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I80" s="4" t="s">
+      <c r="L80" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M80" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>120</v>
       </c>
@@ -3656,26 +3824,30 @@
       <c r="C81" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" s="6" t="s">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K81" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I81" s="4" t="s">
+      <c r="L81" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>120</v>
       </c>
@@ -3685,26 +3857,30 @@
       <c r="C82" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" s="6" t="s">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K82" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I82" s="6" t="s">
+      <c r="L82" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M82" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>120</v>
       </c>
@@ -3714,26 +3890,30 @@
       <c r="C83" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="4" t="s">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="K83" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I83" s="4" t="s">
+      <c r="L83" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M83" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
@@ -3743,26 +3923,30 @@
       <c r="C84" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="K84" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I84" s="4" t="s">
+      <c r="L84" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M84" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>120</v>
       </c>
@@ -3772,26 +3956,30 @@
       <c r="C85" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="4" t="s">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="K85" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I85" s="4" t="s">
+      <c r="L85" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M85" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>120</v>
       </c>
@@ -3801,26 +3989,30 @@
       <c r="C86" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" s="4" t="s">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="K86" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I86" s="6" t="s">
+      <c r="L86" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M86" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>120</v>
       </c>
@@ -3830,26 +4022,30 @@
       <c r="C87" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="4" t="s">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="J87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="K87" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I87" s="4" t="s">
+      <c r="L87" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M87" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>120</v>
       </c>
@@ -3859,26 +4055,30 @@
       <c r="C88" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="4" t="s">
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="J88" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="K88" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I88" s="4" t="s">
+      <c r="L88" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M88" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>120</v>
       </c>
@@ -3888,26 +4088,30 @@
       <c r="C89" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="4" t="s">
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="J89" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="K89" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I89" s="6" t="s">
+      <c r="L89" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M89" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>120</v>
       </c>
@@ -3917,26 +4121,30 @@
       <c r="C90" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" s="4" t="s">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I90" s="6" t="s">
+      <c r="L90" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M90" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>120</v>
       </c>
@@ -3946,26 +4154,30 @@
       <c r="C91" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G91" s="4" t="s">
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I91" s="6" t="s">
+      <c r="L91" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M91" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>120</v>
       </c>
@@ -3975,26 +4187,30 @@
       <c r="C92" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="4" t="s">
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="J92" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="K92" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I92" s="6" t="s">
+      <c r="L92" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M92" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>120</v>
       </c>
@@ -4004,26 +4220,30 @@
       <c r="C93" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="4" t="s">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="J93" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="K93" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I93" s="6" t="s">
+      <c r="L93" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M93" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>120</v>
       </c>
@@ -4033,26 +4253,30 @@
       <c r="C94" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="4" t="s">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I94" s="6" t="s">
+      <c r="J94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M94" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>120</v>
       </c>
@@ -4062,26 +4286,30 @@
       <c r="C95" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="4" t="s">
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="J95" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="K95" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I95" s="6" t="s">
+      <c r="L95" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M95" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>120</v>
       </c>
@@ -4091,26 +4319,30 @@
       <c r="C96" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="4" t="s">
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="J96" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="K96" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H96" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I96" s="6" t="s">
+      <c r="L96" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M96" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>120</v>
       </c>
@@ -4120,26 +4352,30 @@
       <c r="C97" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="4" t="s">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I97" s="6" t="s">
+      <c r="J97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M97" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>120</v>
       </c>
@@ -4149,26 +4385,30 @@
       <c r="C98" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="4" t="s">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="J98" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="K98" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I98" s="6" t="s">
+      <c r="L98" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M98" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -4178,26 +4418,30 @@
       <c r="C99" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="4" t="s">
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="J99" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="K99" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I99" s="6" t="s">
+      <c r="L99" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M99" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>120</v>
       </c>
@@ -4207,26 +4451,30 @@
       <c r="C100" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="4" t="s">
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I100" s="6" t="s">
+      <c r="J100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M100" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>120</v>
       </c>
@@ -4236,26 +4484,30 @@
       <c r="C101" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="4" t="s">
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="J101" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="K101" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H101" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I101" s="6" t="s">
+      <c r="L101" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M101" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>120</v>
       </c>
@@ -4265,26 +4517,30 @@
       <c r="C102" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="4" t="s">
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="J102" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="K102" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H102" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I102" s="6" t="s">
+      <c r="L102" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M102" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -4294,26 +4550,30 @@
       <c r="C103" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="4" t="s">
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I103" s="6" t="s">
+      <c r="J103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M103" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>120</v>
       </c>
@@ -4323,26 +4583,30 @@
       <c r="C104" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D104" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" s="13" t="s">
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J104" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="G104" s="13" t="s">
+      <c r="K104" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I104" s="4" t="s">
+      <c r="L104" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M104" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>120</v>
       </c>
@@ -4352,26 +4616,30 @@
       <c r="C105" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D105" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" s="13" t="s">
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J105" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G105" s="13" t="s">
+      <c r="K105" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="H105" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I105" s="4" t="s">
+      <c r="L105" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M105" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>120</v>
       </c>
@@ -4381,26 +4649,30 @@
       <c r="C106" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D106" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" s="14" t="s">
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G106" s="14" t="s">
+      <c r="K106" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I106" s="4" t="s">
+      <c r="L106" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M106" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>120</v>
       </c>
@@ -4410,26 +4682,30 @@
       <c r="C107" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D107" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" s="13" t="s">
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G107" s="13" t="s">
+      <c r="K107" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="H107" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I107" s="4" t="s">
+      <c r="L107" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M107" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
         <v>120</v>
       </c>
@@ -4439,26 +4715,30 @@
       <c r="C108" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G108" s="22" t="s">
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K108" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="H108" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I108" s="22" t="s">
+      <c r="L108" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M108" s="22" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
         <v>120</v>
       </c>
@@ -4468,26 +4748,30 @@
       <c r="C109" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D109" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" s="22" t="s">
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J109" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="H109" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I109" s="22" t="s">
+      <c r="L109" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M109" s="22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>121</v>
       </c>
@@ -4497,26 +4781,26 @@
       <c r="C110" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="H110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="M110" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -4526,26 +4810,26 @@
       <c r="C111" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="L111" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="M111" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>121</v>
       </c>
@@ -4555,26 +4839,26 @@
       <c r="C112" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K112" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="L112" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="M112" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
@@ -4584,26 +4868,26 @@
       <c r="C113" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="H113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L113" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="M113" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
@@ -4613,26 +4897,26 @@
       <c r="C114" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" s="1" t="s">
+      <c r="H114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H114" s="1" t="s">
+      <c r="K114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="M114" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>121</v>
       </c>
@@ -4642,26 +4926,26 @@
       <c r="C115" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" s="2" t="s">
+      <c r="H115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J115" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="K115" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="L115" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="M115" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
@@ -4671,23 +4955,23 @@
       <c r="C116" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" s="2" t="s">
+      <c r="H116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="K116" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="L116" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -4697,23 +4981,23 @@
       <c r="C117" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117" s="2" t="s">
+      <c r="H117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J117" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="K117" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="L117" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
@@ -4723,23 +5007,23 @@
       <c r="C118" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F118" s="2" t="s">
+      <c r="H118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J118" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="K118" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="L118" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -4749,26 +5033,26 @@
       <c r="C119" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="1" t="s">
+      <c r="H119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I119" s="1" t="s">
+      <c r="J119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M119" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>123</v>
       </c>
@@ -4778,26 +5062,26 @@
       <c r="C120" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="H120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I120" s="1" t="s">
+      <c r="J120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M120" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -4807,26 +5091,26 @@
       <c r="C121" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="H121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I121" s="1" t="s">
+      <c r="J121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M121" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -4836,26 +5120,26 @@
       <c r="C122" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G122" s="1" t="s">
+      <c r="H122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I122" s="1" t="s">
+      <c r="L122" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M122" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
@@ -4865,26 +5149,26 @@
       <c r="C123" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G123" s="1" t="s">
+      <c r="H123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I123" s="1" t="s">
+      <c r="L123" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M123" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -4894,26 +5178,26 @@
       <c r="C124" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" s="1" t="s">
+      <c r="H124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K124" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H124" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I124" s="1" t="s">
+      <c r="L124" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M124" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -4923,26 +5207,26 @@
       <c r="C125" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G125" s="1" t="s">
+      <c r="H125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K125" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H125" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I125" s="1" t="s">
+      <c r="L125" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M125" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
@@ -4952,23 +5236,23 @@
       <c r="C126" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="J126" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="K126" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I126" s="1" t="s">
+      <c r="L126" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M126" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>122</v>
       </c>
@@ -4978,26 +5262,30 @@
       <c r="C127" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="I127" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="J127" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I127" s="3" t="s">
+      <c r="L127" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M127" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>122</v>
       </c>
@@ -5007,26 +5295,30 @@
       <c r="C128" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="I128" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="J128" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="K128" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I128" s="3" t="s">
+      <c r="L128" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M128" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>122</v>
       </c>
@@ -5036,26 +5328,26 @@
       <c r="C129" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="J129" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="K129" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I129" s="1" t="s">
+      <c r="L129" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M129" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>122</v>
       </c>
@@ -5065,26 +5357,26 @@
       <c r="C130" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="H130" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="J130" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="K130" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I130" s="1" t="s">
+      <c r="L130" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M130" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>122</v>
       </c>
@@ -5094,26 +5386,26 @@
       <c r="C131" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="H131" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="J131" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="K131" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I131" s="1" t="s">
+      <c r="L131" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M131" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>122</v>
       </c>
@@ -5123,26 +5415,26 @@
       <c r="C132" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F132" s="3" t="s">
+      <c r="H132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J132" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="K132" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I132" s="1" t="s">
+      <c r="L132" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M132" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>122</v>
       </c>
@@ -5152,26 +5444,26 @@
       <c r="C133" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" s="3" t="s">
+      <c r="H133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J133" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="K133" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I133" s="1" t="s">
+      <c r="L133" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M133" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>122</v>
       </c>
@@ -5181,26 +5473,26 @@
       <c r="C134" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" s="3" t="s">
+      <c r="H134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J134" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="K134" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I134" s="1" t="s">
+      <c r="L134" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M134" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>122</v>
       </c>
@@ -5210,26 +5502,26 @@
       <c r="C135" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="H135" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="I135" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I135" s="1" t="s">
+      <c r="J135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M135" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>122</v>
       </c>
@@ -5239,26 +5531,26 @@
       <c r="C136" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="I136" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I136" s="1" t="s">
+      <c r="J136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M136" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>122</v>
       </c>
@@ -5268,26 +5560,26 @@
       <c r="C137" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="I137" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I137" s="1" t="s">
+      <c r="J137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M137" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
         <v>200</v>
       </c>
@@ -5297,26 +5589,38 @@
       <c r="C138" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="J138" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G138" s="10" t="s">
+      <c r="K138" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I138" s="10" t="s">
+      <c r="L138" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M138" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
         <v>200</v>
       </c>
@@ -5326,26 +5630,38 @@
       <c r="C139" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H139" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="I139" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F139" s="11" t="s">
+      <c r="J139" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G139" s="11" t="s">
+      <c r="K139" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I139" s="11" t="s">
+      <c r="L139" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M139" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>200</v>
       </c>
@@ -5355,26 +5671,38 @@
       <c r="C140" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H140" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="I140" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F140" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I140" s="18" t="s">
+      <c r="J140" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M140" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>200</v>
       </c>
@@ -5384,26 +5712,38 @@
       <c r="C141" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D141" s="11" t="s">
-        <v>7</v>
+      <c r="D141" s="23" t="s">
+        <v>275</v>
       </c>
       <c r="E141" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I141" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F141" s="11" t="s">
+      <c r="J141" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G141" s="10" t="s">
+      <c r="K141" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I141" s="10" t="s">
+      <c r="L141" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M141" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
         <v>200</v>
       </c>
@@ -5413,26 +5753,32 @@
       <c r="C142" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D142" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F142" s="11" t="s">
+      <c r="D142" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J142" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G142" s="11" t="s">
+      <c r="K142" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I142" s="10" t="s">
+      <c r="L142" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M142" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>200</v>
       </c>
@@ -5442,26 +5788,38 @@
       <c r="C143" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D143" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" s="11" t="s">
+      <c r="D143" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J143" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G143" s="11" t="s">
+      <c r="K143" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I143" s="10" t="s">
+      <c r="L143" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M143" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
         <v>200</v>
       </c>
@@ -5471,26 +5829,38 @@
       <c r="C144" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="I144" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F144" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I144" s="10" t="s">
+      <c r="J144" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M144" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
         <v>200</v>
       </c>
@@ -5500,26 +5870,38 @@
       <c r="C145" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D145" s="11" t="s">
-        <v>7</v>
+      <c r="D145" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I145" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F145" s="11" t="s">
+      <c r="J145" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G145" s="11" t="s">
+      <c r="K145" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I145" s="11" t="s">
+      <c r="L145" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M145" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
         <v>200</v>
       </c>
@@ -5529,26 +5911,38 @@
       <c r="C146" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D146" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="11" t="s">
+      <c r="D146" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I146" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F146" s="11" t="s">
+      <c r="J146" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G146" s="11" t="s">
+      <c r="K146" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I146" s="11" t="s">
+      <c r="L146" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M146" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
         <v>185</v>
       </c>
@@ -5558,26 +5952,35 @@
       <c r="C147" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H147" t="s">
         <v>174</v>
       </c>
-      <c r="E147" t="s">
+      <c r="I147" t="s">
         <v>26</v>
       </c>
-      <c r="F147" t="s">
+      <c r="J147" t="s">
         <v>174</v>
       </c>
-      <c r="G147" t="s">
+      <c r="K147" t="s">
         <v>182</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I147" s="10" t="s">
+      <c r="L147" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M147" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="16" t="s">
         <v>185</v>
       </c>
@@ -5587,26 +5990,35 @@
       <c r="C148" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H148" t="s">
         <v>174</v>
       </c>
-      <c r="E148" t="s">
+      <c r="I148" t="s">
         <v>26</v>
       </c>
-      <c r="F148" t="s">
+      <c r="J148" t="s">
         <v>182</v>
       </c>
-      <c r="G148" t="s">
+      <c r="K148" t="s">
         <v>183</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I148" s="11" t="s">
+      <c r="L148" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M148" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="16" t="s">
         <v>185</v>
       </c>
@@ -5616,26 +6028,35 @@
       <c r="C149" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D149" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E149" t="s">
-        <v>183</v>
-      </c>
-      <c r="F149" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I149" s="18" t="s">
+      <c r="E149" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I149" t="s">
+        <v>289</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M149" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="16" t="s">
         <v>185</v>
       </c>
@@ -5645,26 +6066,35 @@
       <c r="C150" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D150" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="E150" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F150" s="11" t="s">
+      <c r="J150" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G150" t="s">
+      <c r="K150" t="s">
         <v>182</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I150" s="10" t="s">
+      <c r="L150" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M150" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="16" t="s">
         <v>185</v>
       </c>
@@ -5674,26 +6104,26 @@
       <c r="C151" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D151" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="H151" t="s">
+        <v>7</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J151" t="s">
         <v>174</v>
       </c>
-      <c r="G151" t="s">
+      <c r="K151" t="s">
         <v>182</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I151" s="10" t="s">
+      <c r="L151" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M151" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
         <v>185</v>
       </c>
@@ -5703,26 +6133,35 @@
       <c r="C152" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D152" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H152" t="s">
+        <v>7</v>
+      </c>
+      <c r="I152" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F152" t="s">
+      <c r="J152" t="s">
         <v>182</v>
       </c>
-      <c r="G152" t="s">
+      <c r="K152" t="s">
         <v>183</v>
       </c>
-      <c r="H152" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I152" s="11" t="s">
+      <c r="L152" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M152" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="16" t="s">
         <v>185</v>
       </c>
@@ -5732,26 +6171,35 @@
       <c r="C153" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D153" t="s">
-        <v>7</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H153" t="s">
+        <v>7</v>
+      </c>
+      <c r="I153" t="s">
         <v>76</v>
       </c>
-      <c r="F153" t="s">
+      <c r="J153" t="s">
         <v>182</v>
       </c>
-      <c r="G153" t="s">
+      <c r="K153" t="s">
         <v>183</v>
       </c>
-      <c r="H153" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I153" s="11" t="s">
+      <c r="L153" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M153" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
         <v>203</v>
       </c>
@@ -5761,26 +6209,35 @@
       <c r="C154" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D154" s="15" t="s">
+      <c r="E154" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H154" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E154" s="15" t="s">
+      <c r="I154" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F154" s="15" t="s">
+      <c r="J154" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G154" s="15" t="s">
+      <c r="K154" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H154" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I154" s="10" t="s">
+      <c r="L154" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M154" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
         <v>203</v>
       </c>
@@ -5790,26 +6247,35 @@
       <c r="C155" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D155" s="15" t="s">
+      <c r="E155" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H155" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E155" s="15" t="s">
+      <c r="I155" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F155" s="15" t="s">
+      <c r="J155" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G155" s="15" t="s">
+      <c r="K155" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="H155" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I155" s="11" t="s">
+      <c r="L155" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M155" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
         <v>203</v>
       </c>
@@ -5819,26 +6285,35 @@
       <c r="C156" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D156" s="15" t="s">
+      <c r="E156" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H156" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="E156" s="15" t="s">
+      <c r="I156" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F156" t="s">
-        <v>7</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I156" s="18" t="s">
+      <c r="J156" t="s">
+        <v>7</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M156" s="18" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
         <v>203</v>
       </c>
@@ -5848,26 +6323,35 @@
       <c r="C157" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D157" s="15" t="s">
+      <c r="E157" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H157" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E157" s="15" t="s">
+      <c r="I157" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F157" t="s">
-        <v>7</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I157" s="18" t="s">
+      <c r="J157" t="s">
+        <v>7</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M157" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
         <v>203</v>
       </c>
@@ -5877,26 +6361,35 @@
       <c r="C158" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D158" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H158" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I158" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F158" s="15" t="s">
+      <c r="J158" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G158" s="15" t="s">
+      <c r="K158" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I158" s="11" t="s">
+      <c r="L158" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M158" s="11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
         <v>203</v>
       </c>
@@ -5906,26 +6399,27 @@
       <c r="C159" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D159" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F159" s="15" t="s">
+      <c r="F159" s="11"/>
+      <c r="H159" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J159" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G159" s="15" t="s">
+      <c r="K159" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H159" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I159" s="11" t="s">
+      <c r="L159" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M159" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
         <v>203</v>
       </c>
@@ -5935,26 +6429,35 @@
       <c r="C160" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D160" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F160" s="15" t="s">
+      <c r="E160" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J160" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="G160" s="15" t="s">
+      <c r="K160" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I160" s="11" t="s">
+      <c r="L160" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M160" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
         <v>203</v>
       </c>
@@ -5964,26 +6467,35 @@
       <c r="C161" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D161" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H161" t="s">
+        <v>7</v>
+      </c>
+      <c r="I161" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F161" s="15" t="s">
+      <c r="J161" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G161" s="15" t="s">
+      <c r="K161" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I161" s="11" t="s">
+      <c r="L161" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M161" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
         <v>203</v>
       </c>
@@ -5993,26 +6505,35 @@
       <c r="C162" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D162" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="E162" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H162" t="s">
+        <v>7</v>
+      </c>
+      <c r="I162" t="s">
         <v>76</v>
       </c>
-      <c r="F162" s="15" t="s">
+      <c r="J162" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G162" s="15" t="s">
+      <c r="K162" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="H162" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I162" s="11" t="s">
+      <c r="L162" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M162" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="19" t="s">
         <v>205</v>
       </c>
@@ -6022,26 +6543,26 @@
       <c r="C163" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E163" s="15" t="s">
+      <c r="I163" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F163" s="15" t="s">
+      <c r="J163" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G163" s="15" t="s">
+      <c r="K163" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I163" s="18" t="s">
+      <c r="L163" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M163" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="19" t="s">
         <v>205</v>
       </c>
@@ -6051,26 +6572,26 @@
       <c r="C164" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D164" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164" s="15" t="s">
+      <c r="H164" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I164" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F164" s="15" t="s">
+      <c r="J164" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G164" s="15" t="s">
+      <c r="K164" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I164" s="18" t="s">
+      <c r="L164" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M164" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="19" t="s">
         <v>205</v>
       </c>
@@ -6080,26 +6601,26 @@
       <c r="C165" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="H165" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E165" s="15" t="s">
+      <c r="I165" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F165" s="15" t="s">
+      <c r="J165" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G165" s="15" t="s">
+      <c r="K165" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I165" s="18" t="s">
+      <c r="L165" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M165" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="19" t="s">
         <v>205</v>
       </c>
@@ -6109,26 +6630,26 @@
       <c r="C166" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D166" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E166" s="15" t="s">
+      <c r="H166" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I166" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F166" s="15" t="s">
+      <c r="J166" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G166" s="15" t="s">
+      <c r="K166" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H166" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I166" s="18" t="s">
+      <c r="L166" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M166" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="19" t="s">
         <v>205</v>
       </c>
@@ -6138,26 +6659,26 @@
       <c r="C167" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="H167" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="I167" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F167" s="15" t="s">
+      <c r="J167" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="G167" s="15" t="s">
+      <c r="K167" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="H167" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I167" s="18" t="s">
+      <c r="L167" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M167" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="s">
         <v>205</v>
       </c>
@@ -6167,26 +6688,26 @@
       <c r="C168" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D168" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E168" s="15" t="s">
+      <c r="H168" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I168" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="F168" s="15" t="s">
+      <c r="J168" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="G168" s="15" t="s">
+      <c r="K168" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="H168" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I168" s="18" t="s">
+      <c r="L168" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M168" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="19" t="s">
         <v>205</v>
       </c>
@@ -6196,26 +6717,26 @@
       <c r="C169" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D169" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E169" s="1" t="s">
+      <c r="H169" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I169" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F169" s="15" t="s">
+      <c r="J169" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="G169" s="15" t="s">
+      <c r="K169" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I169" s="18" t="s">
+      <c r="L169" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M169" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="19" t="s">
         <v>205</v>
       </c>
@@ -6225,26 +6746,26 @@
       <c r="C170" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E170" s="15" t="s">
+      <c r="I170" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="F170" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G170" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I170" s="18" t="s">
+      <c r="J170" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K170" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M170" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="19" t="s">
         <v>205</v>
       </c>
@@ -6254,24 +6775,24 @@
       <c r="C171" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="H171" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E171" s="15"/>
-      <c r="F171" s="15" t="s">
+      <c r="I171" s="15"/>
+      <c r="J171" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G171" s="15" t="s">
+      <c r="K171" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I171" s="18" t="s">
+      <c r="L171" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M171" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="19" t="s">
         <v>205</v>
       </c>
@@ -6281,26 +6802,26 @@
       <c r="C172" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D172" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F172" s="1" t="s">
+      <c r="H172" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I172" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J172" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G172" s="15" t="s">
+      <c r="K172" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I172" s="18" t="s">
+      <c r="L172" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M172" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="19" t="s">
         <v>205</v>
       </c>
@@ -6310,26 +6831,26 @@
       <c r="C173" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D173" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" s="1" t="s">
+      <c r="H173" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I173" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J173" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G173" s="15" t="s">
+      <c r="K173" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H173" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I173" s="18" t="s">
+      <c r="L173" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M173" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="19" t="s">
         <v>205</v>
       </c>
@@ -6339,26 +6860,26 @@
       <c r="C174" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D174" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174" s="15" t="s">
+      <c r="H174" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I174" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F174" s="11" t="s">
+      <c r="J174" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G174" s="15" t="s">
+      <c r="K174" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H174" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I174" s="18" t="s">
+      <c r="L174" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M174" s="18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="19" t="s">
         <v>205</v>
       </c>
@@ -6368,26 +6889,26 @@
       <c r="C175" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D175" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175" s="15" t="s">
+      <c r="H175" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I175" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F175" s="11" t="s">
+      <c r="J175" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G175" s="15" t="s">
+      <c r="K175" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I175" s="18" t="s">
+      <c r="L175" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M175" s="18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="19" t="s">
         <v>205</v>
       </c>
@@ -6397,26 +6918,26 @@
       <c r="C176" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D176" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E176" s="15" t="s">
+      <c r="H176" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I176" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F176" s="11" t="s">
+      <c r="J176" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G176" s="15" t="s">
+      <c r="K176" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I176" s="18" t="s">
+      <c r="L176" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M176" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>205</v>
       </c>
@@ -6426,26 +6947,26 @@
       <c r="C177" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D177" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E177" s="11" t="s">
+      <c r="H177" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I177" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F177" s="11" t="s">
+      <c r="J177" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G177" s="11" t="s">
+      <c r="K177" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I177" s="18" t="s">
+      <c r="L177" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M177" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="19" t="s">
         <v>205</v>
       </c>
@@ -6455,26 +6976,26 @@
       <c r="C178" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D178" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E178" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F178" s="11" t="s">
+      <c r="H178" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I178" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J178" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G178" s="11" t="s">
+      <c r="K178" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I178" s="11" t="s">
+      <c r="L178" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M178" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>125</v>
       </c>
@@ -6484,26 +7005,30 @@
       <c r="C179" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="I179" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I179" s="1" t="s">
+      <c r="J179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M179" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>125</v>
       </c>
@@ -6513,26 +7038,30 @@
       <c r="C180" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F180" s="1" t="s">
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J180" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="K180" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H180" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I180" s="1" t="s">
+      <c r="L180" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M180" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>125</v>
       </c>
@@ -6542,26 +7071,30 @@
       <c r="C181" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E181" s="1" t="s">
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I181" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I181" s="1" t="s">
+      <c r="J181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M181" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>125</v>
       </c>
@@ -6571,26 +7104,30 @@
       <c r="C182" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G182" s="1" t="s">
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K182" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I182" s="1" t="s">
+      <c r="L182" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M182" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>125</v>
       </c>
@@ -6600,26 +7137,30 @@
       <c r="C183" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="I183" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I183" s="1" t="s">
+      <c r="J183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M183" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>171</v>
       </c>
@@ -6629,26 +7170,30 @@
       <c r="C184" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="I184" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I184" s="1" t="s">
+      <c r="J184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M184" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>171</v>
       </c>
@@ -6658,26 +7203,30 @@
       <c r="C185" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F185" s="1" t="s">
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J185" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="K185" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I185" s="1" t="s">
+      <c r="L185" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M185" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>171</v>
       </c>
@@ -6687,26 +7236,30 @@
       <c r="C186" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E186" s="1" t="s">
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I186" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I186" s="1" t="s">
+      <c r="J186" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M186" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>171</v>
       </c>
@@ -6716,26 +7269,30 @@
       <c r="C187" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G187" s="1" t="s">
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K187" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I187" s="1" t="s">
+      <c r="L187" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M187" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>171</v>
       </c>
@@ -6745,26 +7302,30 @@
       <c r="C188" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="I188" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I188" s="1" t="s">
+      <c r="J188" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M188" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>126</v>
       </c>
@@ -6774,26 +7335,26 @@
       <c r="C189" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="I189" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="J189" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G189" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I189" s="1" t="s">
+      <c r="K189" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M189" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>126</v>
       </c>
@@ -6803,26 +7364,26 @@
       <c r="C190" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="H190" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="I190" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F190" s="3" t="s">
+      <c r="J190" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G190" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I190" s="1" t="s">
+      <c r="K190" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M190" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>126</v>
       </c>
@@ -6832,26 +7393,26 @@
       <c r="C191" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="H191" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="I191" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="J191" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G191" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I191" s="1" t="s">
+      <c r="K191" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M191" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>126</v>
       </c>
@@ -6861,22 +7422,22 @@
       <c r="C192" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="H192" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="I192" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F192" s="3" t="s">
+      <c r="J192" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G192" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I192" s="1" t="s">
+      <c r="K192" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M192" s="1" t="s">
         <v>252</v>
       </c>
     </row>

--- a/docs/sets_intersections.xlsx
+++ b/docs/sets_intersections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104AF293-CD34-AC42-B49E-C7A2C787CC7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A458E41-A915-9847-AEF5-FB50DADA1AA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38420" yWindow="-5120" windowWidth="38400" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
+    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" xr2:uid="{7E584B55-F418-AA41-BD0B-A5D69D3D1014}"/>
   </bookViews>
   <sheets>
     <sheet name="intersections" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="290">
   <si>
     <t>ccc</t>
   </si>
@@ -848,12 +848,6 @@
   </si>
   <si>
     <t>sexual_orientation_types_ccc_extent</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>ethnic_group_names_wikipedia_extent</t>
@@ -1011,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1035,7 +1029,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,16 +1134,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:M192" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:M192" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
-  <sortState ref="A3:M192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40DA46E6-8266-6341-B17D-938BDE67EDF1}" name="Table1" displayName="Table1" ref="A2:L192" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:L192" xr:uid="{52918EBF-E76A-C847-8A66-1CB5C11E0906}"/>
+  <sortState ref="A3:L192">
     <sortCondition ref="A2:A192"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{A6E15DC7-B722-374E-B3D6-3AA0ED59483E}" name="function"/>
     <tableColumn id="2" xr3:uid="{A168ABB2-CE3B-8A46-86F9-0AE5B7443802}" name="running"/>
     <tableColumn id="3" xr3:uid="{CD40B044-4AF6-A74D-9860-DB9CF592FD82}" name="main set" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{4A84445F-4EE1-4A47-B007-E94EEF1DFDF9}" name="Column1"/>
     <tableColumn id="12" xr3:uid="{7DA96AA3-DA42-D041-9796-77EAB497F8F6}" name="Content Type"/>
     <tableColumn id="10" xr3:uid="{DC512BB2-9801-DB49-BE7A-9E8061391DA4}" name="Graph Type"/>
     <tableColumn id="11" xr3:uid="{77171AF0-5880-5F47-9947-BF24360FD95B}" name="Reference"/>
@@ -1462,33 +1454,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426F6B2-14A9-484B-8624-F4CD6D7B5D64}">
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:L193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
@@ -1499,37 +1490,34 @@
         <v>86</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
@@ -1539,26 +1527,26 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
@@ -1568,23 +1556,23 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>127</v>
       </c>
@@ -1594,26 +1582,26 @@
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>127</v>
       </c>
@@ -1623,26 +1611,26 @@
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>127</v>
       </c>
@@ -1652,26 +1640,26 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -1681,26 +1669,26 @@
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>117</v>
       </c>
@@ -1710,26 +1698,26 @@
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>117</v>
       </c>
@@ -1739,26 +1727,26 @@
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -1768,26 +1756,26 @@
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -1797,26 +1785,26 @@
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
@@ -1826,26 +1814,26 @@
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>117</v>
       </c>
@@ -1855,26 +1843,26 @@
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>150</v>
       </c>
@@ -1884,26 +1872,26 @@
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>150</v>
       </c>
@@ -1913,26 +1901,26 @@
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>150</v>
       </c>
@@ -1942,26 +1930,26 @@
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>150</v>
       </c>
@@ -1971,26 +1959,26 @@
       <c r="C18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>150</v>
       </c>
@@ -2000,26 +1988,26 @@
       <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>150</v>
       </c>
@@ -2029,26 +2017,26 @@
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>150</v>
       </c>
@@ -2058,26 +2046,26 @@
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>150</v>
       </c>
@@ -2087,26 +2075,26 @@
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>150</v>
       </c>
@@ -2116,26 +2104,26 @@
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>150</v>
       </c>
@@ -2145,26 +2133,26 @@
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>150</v>
       </c>
@@ -2174,26 +2162,26 @@
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>150</v>
       </c>
@@ -2203,26 +2191,26 @@
       <c r="C26" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H26" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>150</v>
       </c>
@@ -2232,26 +2220,26 @@
       <c r="C27" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>150</v>
       </c>
@@ -2261,26 +2249,26 @@
       <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>150</v>
       </c>
@@ -2290,26 +2278,26 @@
       <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H29" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>150</v>
       </c>
@@ -2319,26 +2307,26 @@
       <c r="C30" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H30" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>150</v>
       </c>
@@ -2348,26 +2336,26 @@
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H31" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>150</v>
       </c>
@@ -2377,26 +2365,26 @@
       <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H32" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>150</v>
       </c>
@@ -2406,26 +2394,26 @@
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H33" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M33" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>150</v>
       </c>
@@ -2435,26 +2423,26 @@
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H34" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M34" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>150</v>
       </c>
@@ -2464,26 +2452,26 @@
       <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L35" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>150</v>
       </c>
@@ -2493,26 +2481,26 @@
       <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M36" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
@@ -2522,23 +2510,23 @@
       <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="K37" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M37" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>124</v>
       </c>
@@ -2548,23 +2536,23 @@
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="K38" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M38" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>124</v>
       </c>
@@ -2574,26 +2562,26 @@
       <c r="C39" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="G39" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="K39" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M39" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>124</v>
       </c>
@@ -2603,26 +2591,26 @@
       <c r="C40" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="G40" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="H40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="K40" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M40" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>124</v>
       </c>
@@ -2632,26 +2620,26 @@
       <c r="C41" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="G41" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="K41" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M41" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -2661,26 +2649,26 @@
       <c r="C42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H42" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I42" s="2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="K42" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M42" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
@@ -2690,26 +2678,26 @@
       <c r="C43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H43" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I43" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="K43" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -2719,26 +2707,26 @@
       <c r="C44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H44" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I44" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="K44" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M44" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>124</v>
       </c>
@@ -2748,26 +2736,26 @@
       <c r="C45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H45" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>39</v>
+      <c r="K45" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M45" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>124</v>
       </c>
@@ -2777,26 +2765,26 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I46" s="2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="K46" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M46" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>124</v>
       </c>
@@ -2806,26 +2794,26 @@
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="H47" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I47" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="K47" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M47" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>124</v>
       </c>
@@ -2835,26 +2823,26 @@
       <c r="C48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="H48" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I48" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="K48" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M48" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>124</v>
       </c>
@@ -2864,26 +2852,26 @@
       <c r="C49" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="G49" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="K49" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M49" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
@@ -2893,26 +2881,26 @@
       <c r="C50" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G50" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M50" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>124</v>
       </c>
@@ -2922,26 +2910,26 @@
       <c r="C51" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G51" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H51" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M51" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>124</v>
       </c>
@@ -2951,26 +2939,26 @@
       <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G52" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H52" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M52" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -2980,26 +2968,26 @@
       <c r="C53" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G53" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H53" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M53" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>124</v>
       </c>
@@ -3009,26 +2997,26 @@
       <c r="C54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="G54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="K54" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M54" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>124</v>
       </c>
@@ -3038,26 +3026,26 @@
       <c r="C55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="3" t="s">
+      <c r="G55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="K55" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M55" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>124</v>
       </c>
@@ -3067,26 +3055,26 @@
       <c r="C56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H56" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="I56" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K56" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="K56" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L56" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M56" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
@@ -3096,26 +3084,26 @@
       <c r="C57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H57" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="K57" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M57" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>124</v>
       </c>
@@ -3125,26 +3113,26 @@
       <c r="C58" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H58" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="K58" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M58" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
@@ -3154,23 +3142,23 @@
       <c r="C59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="I59" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J59" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M59" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -3180,23 +3168,23 @@
       <c r="C60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="I60" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M60" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
@@ -3206,23 +3194,23 @@
       <c r="C61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="I61" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M61" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>118</v>
       </c>
@@ -3232,26 +3220,26 @@
       <c r="C62" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H62" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M62" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>118</v>
       </c>
@@ -3261,26 +3249,26 @@
       <c r="C63" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H63" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M63" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>118</v>
       </c>
@@ -3290,26 +3278,26 @@
       <c r="C64" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H64" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M64" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>118</v>
       </c>
@@ -3319,26 +3307,26 @@
       <c r="C65" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G65" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H65" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M65" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>118</v>
       </c>
@@ -3348,26 +3336,26 @@
       <c r="C66" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G66" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H66" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M66" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>118</v>
       </c>
@@ -3377,26 +3365,26 @@
       <c r="C67" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G67" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H67" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M67" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>118</v>
       </c>
@@ -3406,23 +3394,23 @@
       <c r="C68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="I68" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J68" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M68" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>118</v>
       </c>
@@ -3432,26 +3420,26 @@
       <c r="C69" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G69" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H69" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M69" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>116</v>
       </c>
@@ -3464,27 +3452,26 @@
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="G70" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H70" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M70" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L70" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>116</v>
       </c>
@@ -3497,27 +3484,26 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="G71" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H71" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M71" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>116</v>
       </c>
@@ -3530,27 +3516,26 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="G72" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H72" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>116</v>
       </c>
@@ -3563,27 +3548,26 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="G73" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H73" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M73" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>120</v>
       </c>
@@ -3596,27 +3580,26 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H74" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M74" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>120</v>
       </c>
@@ -3629,27 +3612,26 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H75" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M75" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>120</v>
       </c>
@@ -3662,27 +3644,26 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H76" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M76" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>120</v>
       </c>
@@ -3695,27 +3676,26 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H77" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M77" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>120</v>
       </c>
@@ -3728,27 +3708,26 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H78" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M78" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L78" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>120</v>
       </c>
@@ -3761,27 +3740,26 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H79" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M79" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L79" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>120</v>
       </c>
@@ -3794,27 +3772,26 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H80" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="K80" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="L80" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M80" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>120</v>
       </c>
@@ -3827,27 +3804,26 @@
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H81" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="K81" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="L81" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M81" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>120</v>
       </c>
@@ -3860,27 +3836,26 @@
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="G82" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H82" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L82" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M82" s="6" t="s">
+      <c r="K82" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L82" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>120</v>
       </c>
@@ -3893,27 +3868,26 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H83" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M83" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
@@ -3926,27 +3900,26 @@
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H84" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M84" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>120</v>
       </c>
@@ -3959,27 +3932,26 @@
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="G85" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H85" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M85" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>120</v>
       </c>
@@ -3992,27 +3964,26 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H86" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L86" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M86" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L86" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>120</v>
       </c>
@@ -4025,27 +3996,26 @@
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="G87" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H87" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M87" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>120</v>
       </c>
@@ -4058,27 +4028,26 @@
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H88" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M88" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>120</v>
       </c>
@@ -4091,27 +4060,26 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="G89" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H89" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M89" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L89" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>120</v>
       </c>
@@ -4124,27 +4092,26 @@
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H90" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M90" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L90" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>120</v>
       </c>
@@ -4157,27 +4124,26 @@
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H91" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L91" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M91" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L91" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>120</v>
       </c>
@@ -4190,27 +4156,26 @@
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H92" s="4" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M92" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L92" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>120</v>
       </c>
@@ -4223,27 +4188,26 @@
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H93" s="4" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M93" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L93" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>120</v>
       </c>
@@ -4256,27 +4220,26 @@
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H94" s="4" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L94" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M94" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L94" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>120</v>
       </c>
@@ -4289,27 +4252,26 @@
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="G95" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H95" s="4" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M95" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L95" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>120</v>
       </c>
@@ -4322,27 +4284,26 @@
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H96" s="4" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M96" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L96" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>120</v>
       </c>
@@ -4355,27 +4316,26 @@
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="G97" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H97" s="4" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M97" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L97" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>120</v>
       </c>
@@ -4388,27 +4348,26 @@
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="G98" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H98" s="4" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M98" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L98" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -4421,27 +4380,26 @@
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="G99" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H99" s="4" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M99" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L99" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>120</v>
       </c>
@@ -4454,27 +4412,26 @@
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="G100" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H100" s="4" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M100" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L100" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>120</v>
       </c>
@@ -4487,27 +4444,26 @@
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H101" s="4" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L101" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M101" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L101" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>120</v>
       </c>
@@ -4520,27 +4476,26 @@
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+      <c r="G102" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H102" s="4" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M102" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L102" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -4553,27 +4508,26 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="G103" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H103" s="4" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M103" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L103" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>120</v>
       </c>
@@ -4586,27 +4540,26 @@
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>6</v>
+      <c r="G104" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="K104" s="13" t="s">
         <v>192</v>
       </c>
+      <c r="K104" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="L104" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M104" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>120</v>
       </c>
@@ -4619,27 +4572,26 @@
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>6</v>
+      <c r="G105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="K105" s="13" t="s">
         <v>183</v>
       </c>
+      <c r="K105" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="L105" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M105" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>120</v>
       </c>
@@ -4652,27 +4604,26 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>6</v>
+      <c r="G106" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="K106" s="14" t="s">
         <v>181</v>
       </c>
+      <c r="K106" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="L106" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M106" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>120</v>
       </c>
@@ -4685,27 +4636,26 @@
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>6</v>
+      <c r="G107" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>226</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="K107" s="13" t="s">
         <v>192</v>
       </c>
+      <c r="K107" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="L107" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M107" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
         <v>120</v>
       </c>
@@ -4718,27 +4668,26 @@
       <c r="D108" s="22"/>
       <c r="E108" s="22"/>
       <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
+      <c r="G108" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="H108" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J108" s="22" t="s">
-        <v>7</v>
+        <v>225</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="L108" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="M108" s="22" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
         <v>120</v>
       </c>
@@ -4751,27 +4700,26 @@
       <c r="D109" s="22"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
+      <c r="G109" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="H109" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J109" s="22" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="L109" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="M109" s="22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>121</v>
       </c>
@@ -4781,26 +4729,26 @@
       <c r="C110" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G110" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H110" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M110" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -4810,26 +4758,26 @@
       <c r="C111" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G111" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M111" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>121</v>
       </c>
@@ -4839,26 +4787,26 @@
       <c r="C112" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G112" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M112" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
@@ -4868,26 +4816,26 @@
       <c r="C113" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G113" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H113" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>291</v>
+        <v>72</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M113" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
@@ -4897,26 +4845,26 @@
       <c r="C114" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G114" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H114" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M114" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>121</v>
       </c>
@@ -4926,26 +4874,26 @@
       <c r="C115" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G115" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H115" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J115" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J115" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="K115" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M115" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
@@ -4955,23 +4903,23 @@
       <c r="C116" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G116" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H116" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J116" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="J116" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="K116" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L116" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -4981,23 +4929,23 @@
       <c r="C117" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G117" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H117" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J117" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="J117" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K117" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L117" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
@@ -5007,23 +4955,23 @@
       <c r="C118" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G118" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H118" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J118" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="J118" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="K118" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L118" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -5033,26 +4981,26 @@
       <c r="C119" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G119" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H119" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M119" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>123</v>
       </c>
@@ -5062,26 +5010,26 @@
       <c r="C120" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G120" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H120" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M120" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -5091,26 +5039,26 @@
       <c r="C121" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G121" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H121" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M121" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -5120,26 +5068,26 @@
       <c r="C122" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G122" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H122" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M122" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
@@ -5149,26 +5097,26 @@
       <c r="C123" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G123" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H123" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M123" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -5178,26 +5126,26 @@
       <c r="C124" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G124" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H124" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M124" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -5207,26 +5155,26 @@
       <c r="C125" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G125" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H125" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M125" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
@@ -5236,23 +5184,23 @@
       <c r="C126" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="I126" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="K126" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L126" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M126" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>122</v>
       </c>
@@ -5265,27 +5213,26 @@
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
+      <c r="G127" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I127" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="J127" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K127" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L127" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M127" s="3" t="s">
+      <c r="K127" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L127" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>122</v>
       </c>
@@ -5298,27 +5245,26 @@
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
+      <c r="G128" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I128" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="J128" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K128" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L128" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M128" s="3" t="s">
+      <c r="K128" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L128" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>122</v>
       </c>
@@ -5328,26 +5274,26 @@
       <c r="C129" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="I129" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="K129" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L129" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M129" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>122</v>
       </c>
@@ -5357,26 +5303,26 @@
       <c r="C130" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="H130" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="I130" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="K130" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L130" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M130" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>122</v>
       </c>
@@ -5386,26 +5332,26 @@
       <c r="C131" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="I131" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="K131" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L131" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M131" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>122</v>
       </c>
@@ -5415,26 +5361,26 @@
       <c r="C132" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G132" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I132" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="J132" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="K132" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M132" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>122</v>
       </c>
@@ -5444,26 +5390,26 @@
       <c r="C133" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G133" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H133" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K133" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="K133" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L133" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M133" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>122</v>
       </c>
@@ -5473,26 +5419,26 @@
       <c r="C134" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G134" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H134" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K134" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="K134" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L134" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M134" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>122</v>
       </c>
@@ -5502,26 +5448,26 @@
       <c r="C135" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G135" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="H135" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K135" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M135" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>122</v>
       </c>
@@ -5531,26 +5477,26 @@
       <c r="C136" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G136" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="H136" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M136" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>122</v>
       </c>
@@ -5560,26 +5506,26 @@
       <c r="C137" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G137" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="H137" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M137" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
         <v>200</v>
       </c>
@@ -5589,38 +5535,35 @@
       <c r="C138" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D138" s="23" t="s">
-        <v>275</v>
+      <c r="D138" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="H138" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I138" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K138" s="10" t="s">
+      <c r="J138" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="L138" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M138" s="10" t="s">
+      <c r="K138" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L138" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
         <v>200</v>
       </c>
@@ -5630,38 +5573,35 @@
       <c r="C139" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D139" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E139" s="11" t="s">
+      <c r="D139" s="11" t="s">
         <v>271</v>
       </c>
+      <c r="E139" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="F139" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G139" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="G139" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="H139" s="11" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="J139" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K139" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="L139" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M139" s="11" t="s">
+      <c r="K139" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L139" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>200</v>
       </c>
@@ -5672,37 +5612,34 @@
         <v>175</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G140" s="2" t="s">
         <v>261</v>
       </c>
+      <c r="G140" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="H140" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J140" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M140" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L140" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="141" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>200</v>
       </c>
@@ -5712,38 +5649,35 @@
       <c r="C141" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D141" s="23" t="s">
-        <v>275</v>
+      <c r="D141" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G141" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H141" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I141" s="2" t="s">
+      <c r="G141" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J141" s="11" t="s">
+      <c r="I141" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="K141" s="10" t="s">
+      <c r="J141" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="L141" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M141" s="10" t="s">
+      <c r="K141" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L141" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
         <v>200</v>
       </c>
@@ -5756,29 +5690,26 @@
       <c r="D142" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>6</v>
+      <c r="G142" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="J142" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="K142" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="L142" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M142" s="10" t="s">
+      <c r="K142" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L142" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>200</v>
       </c>
@@ -5788,38 +5719,35 @@
       <c r="C143" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E143" s="11" t="s">
+      <c r="D143" s="11" t="s">
         <v>267</v>
       </c>
+      <c r="E143" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F143" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G143" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H143" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>6</v>
+      <c r="G143" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="J143" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="K143" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="L143" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M143" s="10" t="s">
+      <c r="K143" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L143" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
         <v>200</v>
       </c>
@@ -5829,38 +5757,35 @@
       <c r="C144" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E144" s="11" t="s">
+      <c r="D144" s="11" t="s">
         <v>267</v>
       </c>
+      <c r="E144" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F144" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G144" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G144" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="H144" s="11" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="J144" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K144" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M144" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L144" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
         <v>200</v>
       </c>
@@ -5871,37 +5796,34 @@
         <v>175</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G145" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H145" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I145" s="2" t="s">
+      <c r="G145" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="I145" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="J145" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K145" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="L145" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M145" s="11" t="s">
+      <c r="K145" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L145" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
         <v>200</v>
       </c>
@@ -5912,37 +5834,34 @@
         <v>175</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G146" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="G146" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H146" s="11" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="J146" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K146" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="L146" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M146" s="11" t="s">
+      <c r="K146" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L146" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
         <v>185</v>
       </c>
@@ -5952,35 +5871,35 @@
       <c r="C147" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="D147" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="E147" s="2" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G147" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G147" t="s">
+        <v>174</v>
+      </c>
       <c r="H147" t="s">
+        <v>26</v>
+      </c>
+      <c r="I147" t="s">
         <v>174</v>
       </c>
-      <c r="I147" t="s">
-        <v>26</v>
-      </c>
       <c r="J147" t="s">
-        <v>174</v>
-      </c>
-      <c r="K147" t="s">
         <v>182</v>
       </c>
-      <c r="L147" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M147" s="10" t="s">
+      <c r="K147" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L147" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="148" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="16" t="s">
         <v>185</v>
       </c>
@@ -5990,35 +5909,35 @@
       <c r="C148" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E148" s="11" t="s">
-        <v>287</v>
+      <c r="D148" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G148" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="G148" t="s">
+        <v>174</v>
+      </c>
       <c r="H148" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="I148" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="J148" t="s">
-        <v>182</v>
-      </c>
-      <c r="K148" t="s">
         <v>183</v>
       </c>
-      <c r="L148" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M148" s="11" t="s">
+      <c r="K148" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L148" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="16" t="s">
         <v>185</v>
       </c>
@@ -6028,35 +5947,35 @@
       <c r="C149" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="D149" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="E149" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G149" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="I149" t="s">
-        <v>289</v>
-      </c>
-      <c r="J149" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K149" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M149" s="18" t="s">
+      <c r="H149" t="s">
+        <v>287</v>
+      </c>
+      <c r="I149" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L149" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="150" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="16" t="s">
         <v>185</v>
       </c>
@@ -6066,35 +5985,35 @@
       <c r="C150" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="D150" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="E150" s="2" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G150" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H150" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I150" s="2" t="s">
+      <c r="G150" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J150" s="11" t="s">
+      <c r="I150" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="K150" t="s">
+      <c r="J150" t="s">
         <v>182</v>
       </c>
-      <c r="L150" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M150" s="10" t="s">
+      <c r="K150" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L150" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="16" t="s">
         <v>185</v>
       </c>
@@ -6104,26 +6023,26 @@
       <c r="C151" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H151" t="s">
-        <v>7</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>6</v>
+      <c r="G151" t="s">
+        <v>7</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I151" t="s">
+        <v>174</v>
       </c>
       <c r="J151" t="s">
-        <v>174</v>
-      </c>
-      <c r="K151" t="s">
         <v>182</v>
       </c>
-      <c r="L151" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M151" s="10" t="s">
+      <c r="K151" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L151" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
         <v>185</v>
       </c>
@@ -6133,35 +6052,35 @@
       <c r="C152" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="D152" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="E152" s="2" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G152" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H152" t="s">
-        <v>7</v>
-      </c>
-      <c r="I152" s="3" t="s">
+      <c r="G152" t="s">
+        <v>7</v>
+      </c>
+      <c r="H152" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="I152" t="s">
+        <v>182</v>
+      </c>
       <c r="J152" t="s">
-        <v>182</v>
-      </c>
-      <c r="K152" t="s">
         <v>183</v>
       </c>
-      <c r="L152" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M152" s="11" t="s">
+      <c r="K152" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L152" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="16" t="s">
         <v>185</v>
       </c>
@@ -6171,35 +6090,35 @@
       <c r="C153" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="D153" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="E153" s="2" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G153" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="G153" t="s">
+        <v>7</v>
+      </c>
       <c r="H153" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="I153" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="J153" t="s">
-        <v>182</v>
-      </c>
-      <c r="K153" t="s">
         <v>183</v>
       </c>
-      <c r="L153" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M153" s="11" t="s">
+      <c r="K153" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L153" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="154" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
         <v>203</v>
       </c>
@@ -6209,35 +6128,35 @@
       <c r="C154" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="D154" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="E154" s="2" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G154" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G154" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="H154" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="I154" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="J154" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K154" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="L154" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M154" s="10" t="s">
+      <c r="K154" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L154" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="155" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
         <v>203</v>
       </c>
@@ -6247,35 +6166,35 @@
       <c r="C155" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E155" s="11" t="s">
-        <v>281</v>
+      <c r="D155" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G155" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="G155" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="H155" s="15" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="I155" s="15" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="J155" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="K155" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="L155" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M155" s="11" t="s">
+      <c r="K155" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L155" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
         <v>203</v>
       </c>
@@ -6285,35 +6204,35 @@
       <c r="C156" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F156" s="11" t="s">
+      <c r="D156" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E156" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>261</v>
       </c>
+      <c r="G156" s="15" t="s">
+        <v>229</v>
+      </c>
       <c r="H156" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="I156" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="J156" t="s">
-        <v>7</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L156" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M156" s="18" t="s">
+      <c r="I156" t="s">
+        <v>7</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L156" s="18" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="157" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
         <v>203</v>
       </c>
@@ -6323,35 +6242,35 @@
       <c r="C157" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F157" s="11" t="s">
+      <c r="D157" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E157" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G157" s="15" t="s">
+        <v>230</v>
+      </c>
       <c r="H157" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="I157" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="J157" t="s">
-        <v>7</v>
-      </c>
-      <c r="K157" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M157" s="18" t="s">
+      <c r="I157" t="s">
+        <v>7</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L157" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="158" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
         <v>203</v>
       </c>
@@ -6361,35 +6280,35 @@
       <c r="C158" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="D158" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="E158" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G158" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H158" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I158" s="3" t="s">
+      <c r="G158" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H158" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="I158" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="J158" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K158" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="L158" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M158" s="11" t="s">
+      <c r="K158" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L158" s="11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
         <v>203</v>
       </c>
@@ -6399,27 +6318,27 @@
       <c r="C159" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F159" s="11"/>
-      <c r="H159" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>6</v>
+      <c r="E159" s="11"/>
+      <c r="G159" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I159" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="J159" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K159" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="L159" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M159" s="11" t="s">
+      <c r="K159" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L159" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="160" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
         <v>203</v>
       </c>
@@ -6429,35 +6348,35 @@
       <c r="C160" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F160" s="11" t="s">
+      <c r="D160" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E160" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H160" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>6</v>
+      <c r="G160" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I160" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="J160" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K160" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="L160" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M160" s="11" t="s">
+      <c r="K160" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L160" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
         <v>203</v>
       </c>
@@ -6467,35 +6386,35 @@
       <c r="C161" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="D161" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="E161" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G161" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H161" t="s">
-        <v>7</v>
-      </c>
-      <c r="I161" s="3" t="s">
+      <c r="G161" t="s">
+        <v>7</v>
+      </c>
+      <c r="H161" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="I161" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="J161" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="K161" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="L161" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M161" s="11" t="s">
+      <c r="K161" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L161" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
         <v>203</v>
       </c>
@@ -6505,35 +6424,35 @@
       <c r="C162" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="D162" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="E162" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G162" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="G162" t="s">
+        <v>7</v>
+      </c>
       <c r="H162" t="s">
-        <v>7</v>
-      </c>
-      <c r="I162" t="s">
         <v>76</v>
       </c>
+      <c r="I162" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="J162" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="K162" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="L162" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M162" s="11" t="s">
+      <c r="K162" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L162" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="19" t="s">
         <v>205</v>
       </c>
@@ -6543,26 +6462,26 @@
       <c r="C163" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H163" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="I163" s="15" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="J163" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="K163" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="L163" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M163" s="18" t="s">
+      <c r="K163" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L163" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="19" t="s">
         <v>205</v>
       </c>
@@ -6572,26 +6491,26 @@
       <c r="C164" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G164" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H164" s="15" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I164" s="15" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="J164" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="K164" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="L164" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M164" s="18" t="s">
+      <c r="K164" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L164" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="165" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="19" t="s">
         <v>205</v>
       </c>
@@ -6601,26 +6520,26 @@
       <c r="C165" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="G165" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H165" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="I165" s="15" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="J165" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="K165" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="L165" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M165" s="18" t="s">
+      <c r="K165" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L165" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="19" t="s">
         <v>205</v>
       </c>
@@ -6630,26 +6549,26 @@
       <c r="C166" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G166" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H166" s="15" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I166" s="15" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="J166" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="K166" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="L166" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M166" s="18" t="s">
+      <c r="K166" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L166" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="167" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="19" t="s">
         <v>205</v>
       </c>
@@ -6659,26 +6578,26 @@
       <c r="C167" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G167" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="H167" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I167" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="I167" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="J167" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K167" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L167" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M167" s="18" t="s">
+      <c r="K167" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L167" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="168" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="s">
         <v>205</v>
       </c>
@@ -6688,26 +6607,26 @@
       <c r="C168" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G168" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H168" s="15" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="I168" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J168" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K168" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L168" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M168" s="18" t="s">
+      <c r="K168" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L168" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="19" t="s">
         <v>205</v>
       </c>
@@ -6717,26 +6636,26 @@
       <c r="C169" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H169" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I169" s="1" t="s">
+      <c r="G169" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H169" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="I169" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="J169" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K169" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L169" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M169" s="18" t="s">
+      <c r="K169" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L169" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="170" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="19" t="s">
         <v>205</v>
       </c>
@@ -6746,26 +6665,26 @@
       <c r="C170" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H170" s="15" t="s">
+        <v>206</v>
+      </c>
       <c r="I170" s="15" t="s">
-        <v>206</v>
+        <v>7</v>
       </c>
       <c r="J170" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K170" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M170" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L170" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="171" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="19" t="s">
         <v>205</v>
       </c>
@@ -6775,24 +6694,24 @@
       <c r="C171" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H171" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15" t="s">
+        <v>206</v>
+      </c>
       <c r="J171" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="K171" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M171" s="18" t="s">
+      <c r="K171" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L171" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="172" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="19" t="s">
         <v>205</v>
       </c>
@@ -6802,26 +6721,26 @@
       <c r="C172" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G172" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H172" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I172" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I172" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K172" s="15" t="s">
+      <c r="J172" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="L172" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M172" s="18" t="s">
+      <c r="K172" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L172" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="19" t="s">
         <v>205</v>
       </c>
@@ -6831,26 +6750,26 @@
       <c r="C173" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G173" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H173" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I173" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I173" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K173" s="15" t="s">
+      <c r="J173" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="L173" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M173" s="18" t="s">
+      <c r="K173" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L173" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="174" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="19" t="s">
         <v>205</v>
       </c>
@@ -6860,26 +6779,26 @@
       <c r="C174" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G174" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H174" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I174" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J174" s="11" t="s">
+      <c r="I174" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K174" s="15" t="s">
+      <c r="J174" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="L174" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M174" s="18" t="s">
+      <c r="K174" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L174" s="18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="175" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="19" t="s">
         <v>205</v>
       </c>
@@ -6889,26 +6808,26 @@
       <c r="C175" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G175" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H175" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I175" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J175" s="11" t="s">
+      <c r="I175" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K175" s="15" t="s">
+      <c r="J175" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="L175" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M175" s="18" t="s">
+      <c r="K175" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L175" s="18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="176" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="19" t="s">
         <v>205</v>
       </c>
@@ -6918,26 +6837,26 @@
       <c r="C176" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G176" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H176" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I176" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J176" s="11" t="s">
+      <c r="I176" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K176" s="15" t="s">
+      <c r="J176" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="L176" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M176" s="18" t="s">
+      <c r="K176" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L176" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="177" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>205</v>
       </c>
@@ -6947,26 +6866,26 @@
       <c r="C177" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G177" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H177" s="11" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J177" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K177" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="L177" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M177" s="18" t="s">
+      <c r="K177" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L177" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="19" t="s">
         <v>205</v>
       </c>
@@ -6976,26 +6895,26 @@
       <c r="C178" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G178" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H178" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I178" s="15" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I178" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="J178" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K178" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="L178" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M178" s="11" t="s">
+      <c r="K178" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L178" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="179" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>125</v>
       </c>
@@ -7008,27 +6927,26 @@
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
+      <c r="G179" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="H179" s="1" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M179" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="180" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>125</v>
       </c>
@@ -7041,27 +6959,26 @@
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
+      <c r="G180" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H180" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M180" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>125</v>
       </c>
@@ -7074,27 +6991,26 @@
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
+      <c r="G181" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H181" s="1" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M181" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>125</v>
       </c>
@@ -7107,27 +7023,26 @@
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
+      <c r="G182" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H182" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M182" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>125</v>
       </c>
@@ -7140,27 +7055,26 @@
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
+      <c r="G183" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="H183" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M183" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>171</v>
       </c>
@@ -7173,27 +7087,26 @@
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
+      <c r="G184" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="H184" s="1" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M184" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>171</v>
       </c>
@@ -7206,27 +7119,26 @@
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
+      <c r="G185" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H185" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M185" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="186" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>171</v>
       </c>
@@ -7239,27 +7151,26 @@
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
+      <c r="G186" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H186" s="1" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M186" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="187" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>171</v>
       </c>
@@ -7272,27 +7183,26 @@
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
+      <c r="G187" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H187" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M187" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="188" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>171</v>
       </c>
@@ -7305,27 +7215,26 @@
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
+      <c r="G188" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="H188" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M188" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="189" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>126</v>
       </c>
@@ -7335,26 +7244,26 @@
       <c r="C189" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G189" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H189" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I189" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="I189" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J189" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K189" s="3" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M189" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>126</v>
       </c>
@@ -7364,26 +7273,26 @@
       <c r="C190" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G190" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H190" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I190" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="I190" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J190" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M190" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>126</v>
       </c>
@@ -7393,26 +7302,26 @@
       <c r="C191" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H191" s="2" t="s">
+      <c r="G191" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I191" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="I191" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J191" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K191" s="3" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M191" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="192" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>126</v>
       </c>
@@ -7422,22 +7331,22 @@
       <c r="C192" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H192" s="2" t="s">
+      <c r="G192" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I192" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="I192" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J192" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K192" s="3" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M192" s="1" t="s">
         <v>252</v>
       </c>
     </row>
